--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,19 +629,19 @@
         <v>1.0000435644784</v>
       </c>
       <c r="D3">
+        <v>1.0000435644784</v>
+      </c>
+      <c r="E3">
+        <v>0.9999041504723887</v>
+      </c>
+      <c r="F3">
+        <v>1.000116177578881</v>
+      </c>
+      <c r="G3">
         <v>0.9998257281777405</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.0000435644784</v>
-      </c>
-      <c r="F3">
-        <v>1.0000435644784</v>
-      </c>
-      <c r="G3">
-        <v>1.000116177578881</v>
-      </c>
-      <c r="H3">
-        <v>0.9999041504723887</v>
       </c>
       <c r="I3">
         <v>1.0000435644784</v>
@@ -728,7 +680,7 @@
         <v>0.9999961249440347</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,19 +691,19 @@
         <v>1.000084103432154</v>
       </c>
       <c r="D4">
+        <v>1.000084103432154</v>
+      </c>
+      <c r="E4">
+        <v>0.9998149644294945</v>
+      </c>
+      <c r="F4">
+        <v>1.00022427837473</v>
+      </c>
+      <c r="G4">
         <v>0.9996635718396775</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.000084103432154</v>
-      </c>
-      <c r="F4">
-        <v>1.000084103432154</v>
-      </c>
-      <c r="G4">
-        <v>1.00022427837473</v>
-      </c>
-      <c r="H4">
-        <v>0.9998149644294945</v>
       </c>
       <c r="I4">
         <v>1.000084103432154</v>
@@ -790,7 +742,7 @@
         <v>0.999992520823394</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,19 +753,19 @@
         <v>1.000161172988494</v>
       </c>
       <c r="D5">
+        <v>1.000161172988494</v>
+      </c>
+      <c r="E5">
+        <v>0.9996454013493077</v>
+      </c>
+      <c r="F5">
+        <v>1.000429808409933</v>
+      </c>
+      <c r="G5">
         <v>0.9993552770611227</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.000161172988494</v>
-      </c>
-      <c r="F5">
-        <v>1.000161172988494</v>
-      </c>
-      <c r="G5">
-        <v>1.000429808409933</v>
-      </c>
-      <c r="H5">
-        <v>0.9996454013493077</v>
       </c>
       <c r="I5">
         <v>1.000161172988494</v>
@@ -852,7 +804,7 @@
         <v>0.9999856676309743</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,19 +815,19 @@
         <v>1.000236390526831</v>
       </c>
       <c r="D6">
+        <v>1.000236390526831</v>
+      </c>
+      <c r="E6">
+        <v>0.9994799233807694</v>
+      </c>
+      <c r="F6">
+        <v>1.000630389056594</v>
+      </c>
+      <c r="G6">
         <v>0.99905439670433</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.000236390526831</v>
-      </c>
-      <c r="F6">
-        <v>1.000236390526831</v>
-      </c>
-      <c r="G6">
-        <v>1.000630389056594</v>
-      </c>
-      <c r="H6">
-        <v>0.9994799233807694</v>
       </c>
       <c r="I6">
         <v>1.000236390526831</v>
@@ -914,7 +866,7 @@
         <v>0.9999789801203646</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,19 +877,19 @@
         <v>1.00000310384717</v>
       </c>
       <c r="D7">
+        <v>1.00000310384717</v>
+      </c>
+      <c r="E7">
+        <v>0.9999931657389104</v>
+      </c>
+      <c r="F7">
+        <v>1.000008281127253</v>
+      </c>
+      <c r="G7">
         <v>0.9999875741418895</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1.00000310384717</v>
-      </c>
-      <c r="F7">
-        <v>1.00000310384717</v>
-      </c>
-      <c r="G7">
-        <v>1.000008281127253</v>
-      </c>
-      <c r="H7">
-        <v>0.9999931657389105</v>
       </c>
       <c r="I7">
         <v>1.00000310384717</v>
@@ -976,7 +928,7 @@
         <v>0.9999997220915936</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000791458505</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="D8">
+        <v>1.000007914585049</v>
+      </c>
+      <c r="E8">
+        <v>0.99998258195117</v>
+      </c>
+      <c r="F8">
+        <v>1.000021109770445</v>
+      </c>
+      <c r="G8">
         <v>0.9999683310968902</v>
       </c>
-      <c r="E8">
-        <v>1.00000791458505</v>
-      </c>
-      <c r="F8">
-        <v>1.00000791458505</v>
-      </c>
-      <c r="G8">
-        <v>1.000021109770445</v>
-      </c>
       <c r="H8">
-        <v>0.99998258195117</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="I8">
-        <v>1.00000791458505</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="J8">
         <v>0.9999683310968902</v>
       </c>
       <c r="K8">
-        <v>1.00000791458505</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="L8">
-        <v>1.00000791458505</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="M8">
-        <v>0.9999881228409699</v>
+        <v>0.9999881228409697</v>
       </c>
       <c r="N8">
-        <v>0.9999881228409699</v>
+        <v>0.9999881228409697</v>
       </c>
       <c r="O8">
-        <v>0.9999862758777033</v>
+        <v>0.9999862758777032</v>
       </c>
       <c r="P8">
-        <v>0.9999947200889965</v>
+        <v>0.9999947200889961</v>
       </c>
       <c r="Q8">
-        <v>0.9999947200889965</v>
+        <v>0.9999947200889961</v>
       </c>
       <c r="R8">
-        <v>0.9999980187130098</v>
+        <v>0.9999980187130095</v>
       </c>
       <c r="S8">
-        <v>0.9999980187130098</v>
+        <v>0.9999980187130095</v>
       </c>
       <c r="T8">
-        <v>0.9999992944289424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999992944289423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,19 +1001,19 @@
         <v>1.000011082358393</v>
       </c>
       <c r="D9">
+        <v>1.000011082358393</v>
+      </c>
+      <c r="E9">
+        <v>0.9999756126952072</v>
+      </c>
+      <c r="F9">
+        <v>1.000029557499341</v>
+      </c>
+      <c r="G9">
         <v>0.9999556593850548</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.000011082358393</v>
-      </c>
-      <c r="F9">
-        <v>1.000011082358393</v>
-      </c>
-      <c r="G9">
-        <v>1.000029557499341</v>
-      </c>
-      <c r="H9">
-        <v>0.9999756126952072</v>
       </c>
       <c r="I9">
         <v>1.000011082358393</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999990127757972</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,19 +1063,19 @@
         <v>1.000023898673316</v>
       </c>
       <c r="D10">
+        <v>1.000023898673316</v>
+      </c>
+      <c r="E10">
+        <v>0.9999474160759559</v>
+      </c>
+      <c r="F10">
+        <v>1.000063734736501</v>
+      </c>
+      <c r="G10">
         <v>0.9999043930441174</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.000023898673316</v>
-      </c>
-      <c r="F10">
-        <v>1.000023898673316</v>
-      </c>
-      <c r="G10">
-        <v>1.0000637347365</v>
-      </c>
-      <c r="H10">
-        <v>0.9999474160759559</v>
       </c>
       <c r="I10">
         <v>1.000023898673316</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999978733127538</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,19 +1125,19 @@
         <v>1.000039644101751</v>
       </c>
       <c r="D11">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="E11">
+        <v>0.9999127766152982</v>
+      </c>
+      <c r="F11">
+        <v>1.000105721258681</v>
+      </c>
+      <c r="G11">
         <v>0.9998414126576537</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.000039644101751</v>
-      </c>
-      <c r="F11">
-        <v>1.000039644101751</v>
-      </c>
-      <c r="G11">
-        <v>1.000105721258681</v>
-      </c>
-      <c r="H11">
-        <v>0.9999127766152982</v>
       </c>
       <c r="I11">
         <v>1.000039644101751</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999964738061479</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,19 +1187,19 @@
         <v>0.9996486101319245</v>
       </c>
       <c r="D12">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="E12">
+        <v>1.000773063849194</v>
+      </c>
+      <c r="F12">
+        <v>0.9990629555213433</v>
+      </c>
+      <c r="G12">
         <v>1.00140555661252</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>0.9996486101319245</v>
-      </c>
-      <c r="F12">
-        <v>0.9996486101319245</v>
-      </c>
-      <c r="G12">
-        <v>0.9990629555213433</v>
-      </c>
-      <c r="H12">
-        <v>1.000773063849194</v>
       </c>
       <c r="I12">
         <v>0.9996486101319245</v>
@@ -1286,7 +1238,7 @@
         <v>1.000031234396472</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,19 +1249,19 @@
         <v>0.999909272782855</v>
       </c>
       <c r="D13">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="E13">
+        <v>1.000199595934479</v>
+      </c>
+      <c r="F13">
+        <v>0.9997580687530724</v>
+      </c>
+      <c r="G13">
         <v>1.000362896813908</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.999909272782855</v>
-      </c>
-      <c r="F13">
-        <v>0.999909272782855</v>
-      </c>
-      <c r="G13">
-        <v>0.9997580687530723</v>
-      </c>
-      <c r="H13">
-        <v>1.000199595934479</v>
       </c>
       <c r="I13">
         <v>0.999909272782855</v>
@@ -1348,7 +1300,7 @@
         <v>1.000008063308337</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,19 +1311,19 @@
         <v>0.9996486424011988</v>
       </c>
       <c r="D14">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="E14">
+        <v>1.000773004385404</v>
+      </c>
+      <c r="F14">
+        <v>0.9990630104080043</v>
+      </c>
+      <c r="G14">
         <v>1.001405481566587</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.9996486424011988</v>
-      </c>
-      <c r="F14">
-        <v>0.9996486424011988</v>
-      </c>
-      <c r="G14">
-        <v>0.9990630104080043</v>
-      </c>
-      <c r="H14">
-        <v>1.000773004385404</v>
       </c>
       <c r="I14">
         <v>0.9996486424011988</v>
@@ -1410,7 +1362,7 @@
         <v>1.000031237260599</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,19 +1373,19 @@
         <v>0.9999092733264643</v>
       </c>
       <c r="D15">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="E15">
+        <v>1.000199579228749</v>
+      </c>
+      <c r="F15">
+        <v>0.9997580843080667</v>
+      </c>
+      <c r="G15">
         <v>1.000362865507851</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9999092733264643</v>
-      </c>
-      <c r="F15">
-        <v>0.9999092733264643</v>
-      </c>
-      <c r="G15">
-        <v>0.9997580843080667</v>
-      </c>
-      <c r="H15">
-        <v>1.000199579228749</v>
       </c>
       <c r="I15">
         <v>0.9999092733264643</v>
@@ -1472,7 +1424,7 @@
         <v>1.000008058170677</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000177758946</v>
+        <v>1.000849766550922</v>
       </c>
       <c r="D16">
-        <v>0.9999992787978677</v>
+        <v>1.000849766550922</v>
       </c>
       <c r="E16">
-        <v>1.000000177758946</v>
+        <v>0.9981304711217371</v>
       </c>
       <c r="F16">
-        <v>1.000000177758946</v>
+        <v>1.002266078051401</v>
       </c>
       <c r="G16">
-        <v>1.000000477964708</v>
+        <v>0.996600856947755</v>
       </c>
       <c r="H16">
-        <v>0.9999996033273452</v>
+        <v>1.000849766550922</v>
       </c>
       <c r="I16">
-        <v>1.000000177758946</v>
+        <v>1.000849766550922</v>
       </c>
       <c r="J16">
-        <v>0.9999992787978677</v>
+        <v>0.996600856947755</v>
       </c>
       <c r="K16">
-        <v>1.000000177758946</v>
+        <v>1.000849766550922</v>
       </c>
       <c r="L16">
-        <v>1.000000177758946</v>
+        <v>1.000849766550922</v>
       </c>
       <c r="M16">
-        <v>0.9999997282784068</v>
+        <v>0.9987253117493384</v>
       </c>
       <c r="N16">
-        <v>0.9999997282784068</v>
+        <v>0.9987253117493384</v>
       </c>
       <c r="O16">
-        <v>0.9999996866280529</v>
+        <v>0.9985270315401381</v>
       </c>
       <c r="P16">
-        <v>0.9999998781052533</v>
+        <v>0.9994334633498663</v>
       </c>
       <c r="Q16">
-        <v>0.9999998781052533</v>
+        <v>0.9994334633498663</v>
       </c>
       <c r="R16">
-        <v>0.9999999530186765</v>
+        <v>0.9997875391501302</v>
       </c>
       <c r="S16">
-        <v>0.9999999530186765</v>
+        <v>0.9997875391501302</v>
       </c>
       <c r="T16">
-        <v>0.9999999822277933</v>
+        <v>0.9999244509622764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00000380783798</v>
+        <v>1.000695361519682</v>
       </c>
       <c r="D17">
-        <v>0.9999847580500367</v>
+        <v>1.000695361519682</v>
       </c>
       <c r="E17">
-        <v>1.00000380783798</v>
+        <v>0.9984701727791344</v>
       </c>
       <c r="F17">
-        <v>1.00000380783798</v>
+        <v>1.001854323548584</v>
       </c>
       <c r="G17">
-        <v>1.000010158574918</v>
+        <v>0.9972184960630034</v>
       </c>
       <c r="H17">
-        <v>0.9999916168694244</v>
+        <v>1.000695361519682</v>
       </c>
       <c r="I17">
-        <v>1.00000380783798</v>
+        <v>1.000695361519682</v>
       </c>
       <c r="J17">
-        <v>0.9999847580500367</v>
+        <v>0.9972184960630034</v>
       </c>
       <c r="K17">
-        <v>1.00000380783798</v>
+        <v>1.000695361519682</v>
       </c>
       <c r="L17">
-        <v>1.00000380783798</v>
+        <v>1.000695361519682</v>
       </c>
       <c r="M17">
-        <v>0.9999942829440084</v>
+        <v>0.9989569287913427</v>
       </c>
       <c r="N17">
-        <v>0.9999942829440084</v>
+        <v>0.9989569287913427</v>
       </c>
       <c r="O17">
-        <v>0.9999933942524803</v>
+        <v>0.9987946767872732</v>
       </c>
       <c r="P17">
-        <v>0.9999974579086656</v>
+        <v>0.9995364063674558</v>
       </c>
       <c r="Q17">
-        <v>0.9999974579086656</v>
+        <v>0.9995364063674558</v>
       </c>
       <c r="R17">
-        <v>0.9999990453909942</v>
+        <v>0.9998261451555124</v>
       </c>
       <c r="S17">
-        <v>0.9999990453909942</v>
+        <v>0.9998261451555124</v>
       </c>
       <c r="T17">
-        <v>0.9999996595013866</v>
+        <v>0.999938179491628</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013411865979</v>
+        <v>1.000384885277747</v>
       </c>
       <c r="D18">
-        <v>0.9999463408197057</v>
+        <v>1.000384885277747</v>
       </c>
       <c r="E18">
-        <v>1.000013411865979</v>
+        <v>0.9991532418643347</v>
       </c>
       <c r="F18">
-        <v>1.000013411865979</v>
+        <v>1.001026371188203</v>
       </c>
       <c r="G18">
-        <v>1.000035770467426</v>
+        <v>0.9984604402029816</v>
       </c>
       <c r="H18">
-        <v>0.9999704863680985</v>
+        <v>1.000384885277747</v>
       </c>
       <c r="I18">
-        <v>1.000013411865979</v>
+        <v>1.000384885277747</v>
       </c>
       <c r="J18">
-        <v>0.9999463408197057</v>
+        <v>0.9984604402029816</v>
       </c>
       <c r="K18">
-        <v>1.000013411865979</v>
+        <v>1.000384885277747</v>
       </c>
       <c r="L18">
-        <v>1.000013411865979</v>
+        <v>1.000384885277747</v>
       </c>
       <c r="M18">
-        <v>0.9999798763428425</v>
+        <v>0.9994226627403642</v>
       </c>
       <c r="N18">
-        <v>0.9999798763428425</v>
+        <v>0.9994226627403642</v>
       </c>
       <c r="O18">
-        <v>0.9999767463512611</v>
+        <v>0.9993328557816877</v>
       </c>
       <c r="P18">
-        <v>0.9999910548505547</v>
+        <v>0.9997434035861583</v>
       </c>
       <c r="Q18">
-        <v>0.9999910548505547</v>
+        <v>0.9997434035861583</v>
       </c>
       <c r="R18">
-        <v>0.9999966441044108</v>
+        <v>0.9999037740090554</v>
       </c>
       <c r="S18">
-        <v>0.9999966441044108</v>
+        <v>0.9999037740090554</v>
       </c>
       <c r="T18">
-        <v>0.9999988055421944</v>
+        <v>0.9999657848481266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="D19">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="E19">
+        <v>0.9990756670457175</v>
+      </c>
+      <c r="F19">
+        <v>1.001120402730737</v>
+      </c>
+      <c r="G19">
+        <v>0.9983193926238842</v>
+      </c>
+      <c r="H19">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="I19">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="J19">
+        <v>0.9983193926238842</v>
+      </c>
+      <c r="K19">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="L19">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="M19">
+        <v>0.9993697690598643</v>
+      </c>
+      <c r="N19">
+        <v>0.9993697690598643</v>
+      </c>
+      <c r="O19">
+        <v>0.9992717350551487</v>
+      </c>
+      <c r="P19">
+        <v>0.9997198945385243</v>
+      </c>
+      <c r="Q19">
+        <v>0.9997198945385243</v>
+      </c>
+      <c r="R19">
+        <v>0.9998949572778543</v>
+      </c>
+      <c r="S19">
+        <v>0.9998949572778543</v>
+      </c>
+      <c r="T19">
+        <v>0.9999626498146453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="D20">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="E20">
+        <v>0.9999996033273452</v>
+      </c>
+      <c r="F20">
+        <v>1.000000477964708</v>
+      </c>
+      <c r="G20">
+        <v>0.9999992787978677</v>
+      </c>
+      <c r="H20">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="I20">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="J20">
+        <v>0.9999992787978677</v>
+      </c>
+      <c r="K20">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="L20">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="M20">
+        <v>0.9999997282784068</v>
+      </c>
+      <c r="N20">
+        <v>0.9999997282784068</v>
+      </c>
+      <c r="O20">
+        <v>0.9999996866280529</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998781052533</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999998781052533</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999530186765</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999530186765</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999822277933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="D21">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="E21">
+        <v>0.9999916168694244</v>
+      </c>
+      <c r="F21">
+        <v>1.000010158574918</v>
+      </c>
+      <c r="G21">
+        <v>0.9999847580500367</v>
+      </c>
+      <c r="H21">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="I21">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="J21">
+        <v>0.9999847580500367</v>
+      </c>
+      <c r="K21">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="L21">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="M21">
+        <v>0.9999942829440084</v>
+      </c>
+      <c r="N21">
+        <v>0.9999942829440084</v>
+      </c>
+      <c r="O21">
+        <v>0.9999933942524803</v>
+      </c>
+      <c r="P21">
+        <v>0.9999974579086656</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999974579086656</v>
+      </c>
+      <c r="R21">
+        <v>0.9999990453909942</v>
+      </c>
+      <c r="S21">
+        <v>0.9999990453909942</v>
+      </c>
+      <c r="T21">
+        <v>0.9999996595013866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="D22">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="E22">
+        <v>0.9999704863680985</v>
+      </c>
+      <c r="F22">
+        <v>1.000035770467426</v>
+      </c>
+      <c r="G22">
+        <v>0.9999463408197057</v>
+      </c>
+      <c r="H22">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="I22">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="J22">
+        <v>0.9999463408197057</v>
+      </c>
+      <c r="K22">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="L22">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="M22">
+        <v>0.9999798763428425</v>
+      </c>
+      <c r="N22">
+        <v>0.9999798763428425</v>
+      </c>
+      <c r="O22">
+        <v>0.9999767463512611</v>
+      </c>
+      <c r="P22">
+        <v>0.9999910548505547</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999910548505547</v>
+      </c>
+      <c r="R22">
+        <v>0.9999966441044108</v>
+      </c>
+      <c r="S22">
+        <v>0.9999966441044108</v>
+      </c>
+      <c r="T22">
+        <v>0.9999988055421944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000031420375409</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000031420375409</v>
+      </c>
+      <c r="E23">
+        <v>0.9999308637638347</v>
+      </c>
+      <c r="F23">
+        <v>1.000083803473926</v>
+      </c>
+      <c r="G23">
         <v>0.9998742949576677</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.000031420375409</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>1.000031420375409</v>
       </c>
-      <c r="G19">
-        <v>1.000083803473926</v>
-      </c>
-      <c r="H19">
-        <v>0.9999308637638347</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
+        <v>0.9998742949576677</v>
+      </c>
+      <c r="K23">
         <v>1.000031420375409</v>
       </c>
-      <c r="J19">
-        <v>0.9998742949576677</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000031420375409</v>
       </c>
-      <c r="L19">
-        <v>1.000031420375409</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999528576665382</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999528576665382</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.999945526365637</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999790452361618</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999790452361618</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999921390209736</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999921390209736</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999972038869426</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0000435644784</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="D3">
-        <v>1.0000435644784</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="E3">
-        <v>0.9999041504723887</v>
+        <v>0.9989971196613877</v>
       </c>
       <c r="F3">
-        <v>1.000116177578881</v>
+        <v>1.001215609704613</v>
       </c>
       <c r="G3">
-        <v>0.9998257281777405</v>
+        <v>0.9981765811887542</v>
       </c>
       <c r="H3">
-        <v>1.0000435644784</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="I3">
-        <v>1.0000435644784</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="J3">
-        <v>0.9998257281777405</v>
+        <v>0.9981765811887542</v>
       </c>
       <c r="K3">
-        <v>1.0000435644784</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="L3">
-        <v>1.0000435644784</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="M3">
-        <v>0.9999346463280701</v>
+        <v>0.999316215327806</v>
       </c>
       <c r="N3">
-        <v>0.9999346463280701</v>
+        <v>0.999316215327806</v>
       </c>
       <c r="O3">
-        <v>0.9999244810428429</v>
+        <v>0.9992098501056667</v>
       </c>
       <c r="P3">
-        <v>0.9999709523781798</v>
+        <v>0.9996960933741565</v>
       </c>
       <c r="Q3">
-        <v>0.9999709523781798</v>
+        <v>0.9996960933741565</v>
       </c>
       <c r="R3">
-        <v>0.9999891054032348</v>
+        <v>0.9998860323973319</v>
       </c>
       <c r="S3">
-        <v>0.9999891054032348</v>
+        <v>0.9998860323973319</v>
       </c>
       <c r="T3">
-        <v>0.9999961249440347</v>
+        <v>0.9999594764925547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084103432154</v>
+        <v>1.000417120952304</v>
       </c>
       <c r="D4">
-        <v>1.000084103432154</v>
+        <v>1.000417120952304</v>
       </c>
       <c r="E4">
-        <v>0.9998149644294945</v>
+        <v>0.9990823228838929</v>
       </c>
       <c r="F4">
-        <v>1.00022427837473</v>
+        <v>1.001112333373086</v>
       </c>
       <c r="G4">
-        <v>0.9996635718396775</v>
+        <v>0.9983314959196892</v>
       </c>
       <c r="H4">
-        <v>1.000084103432154</v>
+        <v>1.000417120952304</v>
       </c>
       <c r="I4">
-        <v>1.000084103432154</v>
+        <v>1.000417120952304</v>
       </c>
       <c r="J4">
-        <v>0.9996635718396775</v>
+        <v>0.9983314959196892</v>
       </c>
       <c r="K4">
-        <v>1.000084103432154</v>
+        <v>1.000417120952304</v>
       </c>
       <c r="L4">
-        <v>1.000084103432154</v>
+        <v>1.000417120952304</v>
       </c>
       <c r="M4">
-        <v>0.9998738376359158</v>
+        <v>0.9993743084359965</v>
       </c>
       <c r="N4">
-        <v>0.9998738376359158</v>
+        <v>0.9993743084359965</v>
       </c>
       <c r="O4">
-        <v>0.9998542132337752</v>
+        <v>0.9992769799186286</v>
       </c>
       <c r="P4">
-        <v>0.9999439262346619</v>
+        <v>0.999721912608099</v>
       </c>
       <c r="Q4">
-        <v>0.9999439262346619</v>
+        <v>0.999721912608099</v>
       </c>
       <c r="R4">
-        <v>0.9999789705340349</v>
+        <v>0.9998957146941502</v>
       </c>
       <c r="S4">
-        <v>0.9999789705340349</v>
+        <v>0.9998957146941502</v>
       </c>
       <c r="T4">
-        <v>0.999992520823394</v>
+        <v>0.9999629191722632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161172988494</v>
+        <v>1.000529525902971</v>
       </c>
       <c r="D5">
-        <v>1.000161172988494</v>
+        <v>1.000529525902971</v>
       </c>
       <c r="E5">
-        <v>0.9996454013493077</v>
+        <v>0.9988350400269556</v>
       </c>
       <c r="F5">
-        <v>1.000429808409933</v>
+        <v>1.001412066711591</v>
       </c>
       <c r="G5">
-        <v>0.9993552770611227</v>
+        <v>0.9978818947169791</v>
       </c>
       <c r="H5">
-        <v>1.000161172988494</v>
+        <v>1.000529525902971</v>
       </c>
       <c r="I5">
-        <v>1.000161172988494</v>
+        <v>1.000529525902971</v>
       </c>
       <c r="J5">
-        <v>0.9993552770611227</v>
+        <v>0.9978818947169791</v>
       </c>
       <c r="K5">
-        <v>1.000161172988494</v>
+        <v>1.000529525902971</v>
       </c>
       <c r="L5">
-        <v>1.000161172988494</v>
+        <v>1.000529525902971</v>
       </c>
       <c r="M5">
-        <v>0.9997582250248085</v>
+        <v>0.999205710309975</v>
       </c>
       <c r="N5">
-        <v>0.9997582250248085</v>
+        <v>0.999205710309975</v>
       </c>
       <c r="O5">
-        <v>0.9997206171329749</v>
+        <v>0.9990821535489686</v>
       </c>
       <c r="P5">
-        <v>0.9998925410127036</v>
+        <v>0.9996469821743069</v>
       </c>
       <c r="Q5">
-        <v>0.9998925410127036</v>
+        <v>0.9996469821743069</v>
       </c>
       <c r="R5">
-        <v>0.9999596990066513</v>
+        <v>0.999867618106473</v>
       </c>
       <c r="S5">
-        <v>0.9999596990066513</v>
+        <v>0.999867618106473</v>
       </c>
       <c r="T5">
-        <v>0.9999856676309743</v>
+        <v>0.9999529298607398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236390526831</v>
+        <v>1.00059844931818</v>
       </c>
       <c r="D6">
-        <v>1.000236390526831</v>
+        <v>1.00059844931818</v>
       </c>
       <c r="E6">
-        <v>0.9994799233807694</v>
+        <v>0.9986833915340898</v>
       </c>
       <c r="F6">
-        <v>1.000630389056594</v>
+        <v>1.00159588403409</v>
       </c>
       <c r="G6">
-        <v>0.99905439670433</v>
+        <v>0.9976061671590909</v>
       </c>
       <c r="H6">
-        <v>1.000236390526831</v>
+        <v>1.00059844931818</v>
       </c>
       <c r="I6">
-        <v>1.000236390526831</v>
+        <v>1.00059844931818</v>
       </c>
       <c r="J6">
-        <v>0.99905439670433</v>
+        <v>0.9976061671590909</v>
       </c>
       <c r="K6">
-        <v>1.000236390526831</v>
+        <v>1.00059844931818</v>
       </c>
       <c r="L6">
-        <v>1.000236390526831</v>
+        <v>1.00059844931818</v>
       </c>
       <c r="M6">
-        <v>0.9996453936155807</v>
+        <v>0.9991023082386354</v>
       </c>
       <c r="N6">
-        <v>0.9996453936155807</v>
+        <v>0.9991023082386354</v>
       </c>
       <c r="O6">
-        <v>0.9995902368706435</v>
+        <v>0.9989626693371202</v>
       </c>
       <c r="P6">
-        <v>0.9998423925859976</v>
+        <v>0.999601021931817</v>
       </c>
       <c r="Q6">
-        <v>0.9998423925859976</v>
+        <v>0.999601021931817</v>
       </c>
       <c r="R6">
-        <v>0.9999408920712061</v>
+        <v>0.9998503787784078</v>
       </c>
       <c r="S6">
-        <v>0.9999408920712061</v>
+        <v>0.9998503787784078</v>
       </c>
       <c r="T6">
-        <v>0.9999789801203646</v>
+        <v>0.9999467984469685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00000310384717</v>
+        <v>1.000253498020343</v>
       </c>
       <c r="D7">
-        <v>1.00000310384717</v>
+        <v>1.000253498020343</v>
       </c>
       <c r="E7">
-        <v>0.9999931657389104</v>
+        <v>0.9994422821387702</v>
       </c>
       <c r="F7">
-        <v>1.000008281127253</v>
+        <v>1.00067600884019</v>
       </c>
       <c r="G7">
-        <v>0.9999875741418895</v>
+        <v>0.9989859777938075</v>
       </c>
       <c r="H7">
-        <v>1.00000310384717</v>
+        <v>1.000253498020343</v>
       </c>
       <c r="I7">
-        <v>1.00000310384717</v>
+        <v>1.000253498020343</v>
       </c>
       <c r="J7">
-        <v>0.9999875741418895</v>
+        <v>0.9989859777938075</v>
       </c>
       <c r="K7">
-        <v>1.00000310384717</v>
+        <v>1.000253498020343</v>
       </c>
       <c r="L7">
-        <v>1.00000310384717</v>
+        <v>1.000253498020343</v>
       </c>
       <c r="M7">
-        <v>0.9999953389945295</v>
+        <v>0.9996197379070751</v>
       </c>
       <c r="N7">
-        <v>0.9999953389945295</v>
+        <v>0.9996197379070751</v>
       </c>
       <c r="O7">
-        <v>0.9999946145759898</v>
+        <v>0.9995605859843067</v>
       </c>
       <c r="P7">
-        <v>0.9999979272787428</v>
+        <v>0.9998309912781643</v>
       </c>
       <c r="Q7">
-        <v>0.9999979272787428</v>
+        <v>0.9998309912781643</v>
       </c>
       <c r="R7">
-        <v>0.9999992214208495</v>
+        <v>0.999936617963709</v>
       </c>
       <c r="S7">
-        <v>0.9999992214208495</v>
+        <v>0.999936617963709</v>
       </c>
       <c r="T7">
-        <v>0.9999997220915936</v>
+        <v>0.9999774604722993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000007914585049</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="D8">
-        <v>1.000007914585049</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="E8">
-        <v>0.99998258195117</v>
+        <v>0.9994201688595039</v>
       </c>
       <c r="F8">
-        <v>1.000021109770445</v>
+        <v>1.00070281276442</v>
       </c>
       <c r="G8">
-        <v>0.9999683310968902</v>
+        <v>0.9989457718018661</v>
       </c>
       <c r="H8">
-        <v>1.000007914585049</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="I8">
-        <v>1.000007914585049</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="J8">
-        <v>0.9999683310968902</v>
+        <v>0.9989457718018661</v>
       </c>
       <c r="K8">
-        <v>1.000007914585049</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="L8">
-        <v>1.000007914585049</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="M8">
-        <v>0.9999881228409697</v>
+        <v>0.9996046606095974</v>
       </c>
       <c r="N8">
-        <v>0.9999881228409697</v>
+        <v>0.9996046606095974</v>
       </c>
       <c r="O8">
-        <v>0.9999862758777032</v>
+        <v>0.9995431633595663</v>
       </c>
       <c r="P8">
-        <v>0.9999947200889961</v>
+        <v>0.9998242902121746</v>
       </c>
       <c r="Q8">
-        <v>0.9999947200889961</v>
+        <v>0.9998242902121746</v>
       </c>
       <c r="R8">
-        <v>0.9999980187130095</v>
+        <v>0.9999341050134631</v>
       </c>
       <c r="S8">
-        <v>0.9999980187130095</v>
+        <v>0.9999341050134631</v>
       </c>
       <c r="T8">
-        <v>0.9999992944289423</v>
+        <v>0.999976566946296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000011082358393</v>
+        <v>1.000272128240395</v>
       </c>
       <c r="D9">
-        <v>1.000011082358393</v>
+        <v>1.000272128240395</v>
       </c>
       <c r="E9">
-        <v>0.9999756126952072</v>
+        <v>0.9994012954708541</v>
       </c>
       <c r="F9">
-        <v>1.000029557499341</v>
+        <v>1.000725689632068</v>
       </c>
       <c r="G9">
-        <v>0.9999556593850548</v>
+        <v>0.9989114565654991</v>
       </c>
       <c r="H9">
-        <v>1.000011082358393</v>
+        <v>1.000272128240395</v>
       </c>
       <c r="I9">
-        <v>1.000011082358393</v>
+        <v>1.000272128240395</v>
       </c>
       <c r="J9">
-        <v>0.9999556593850548</v>
+        <v>0.9989114565654991</v>
       </c>
       <c r="K9">
-        <v>1.000011082358393</v>
+        <v>1.000272128240395</v>
       </c>
       <c r="L9">
-        <v>1.000011082358393</v>
+        <v>1.000272128240395</v>
       </c>
       <c r="M9">
-        <v>0.9999833708717241</v>
+        <v>0.9995917924029468</v>
       </c>
       <c r="N9">
-        <v>0.9999833708717241</v>
+        <v>0.9995917924029468</v>
       </c>
       <c r="O9">
-        <v>0.9999807848128851</v>
+        <v>0.9995282934255826</v>
       </c>
       <c r="P9">
-        <v>0.9999926080339471</v>
+        <v>0.9998185710154294</v>
       </c>
       <c r="Q9">
-        <v>0.9999926080339471</v>
+        <v>0.9998185710154294</v>
       </c>
       <c r="R9">
-        <v>0.9999972266150586</v>
+        <v>0.9999319603216706</v>
       </c>
       <c r="S9">
-        <v>0.9999972266150586</v>
+        <v>0.9999319603216706</v>
       </c>
       <c r="T9">
-        <v>0.9999990127757972</v>
+        <v>0.9999758043982675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000023898673316</v>
+        <v>1.000292404619381</v>
       </c>
       <c r="D10">
-        <v>1.000023898673316</v>
+        <v>1.000292404619381</v>
       </c>
       <c r="E10">
-        <v>0.9999474160759559</v>
+        <v>0.9993566868878732</v>
       </c>
       <c r="F10">
-        <v>1.000063734736501</v>
+        <v>1.000779760423284</v>
       </c>
       <c r="G10">
-        <v>0.9999043930441174</v>
+        <v>0.9988303500236656</v>
       </c>
       <c r="H10">
-        <v>1.000023898673316</v>
+        <v>1.000292404619381</v>
       </c>
       <c r="I10">
-        <v>1.000023898673316</v>
+        <v>1.000292404619381</v>
       </c>
       <c r="J10">
-        <v>0.9999043930441174</v>
+        <v>0.9988303500236656</v>
       </c>
       <c r="K10">
-        <v>1.000023898673316</v>
+        <v>1.000292404619381</v>
       </c>
       <c r="L10">
-        <v>1.000023898673316</v>
+        <v>1.000292404619381</v>
       </c>
       <c r="M10">
-        <v>0.9999641458587168</v>
+        <v>0.9995613773215235</v>
       </c>
       <c r="N10">
-        <v>0.9999641458587168</v>
+        <v>0.9995613773215235</v>
       </c>
       <c r="O10">
-        <v>0.9999585692644631</v>
+        <v>0.9994931471769734</v>
       </c>
       <c r="P10">
-        <v>0.9999840634635833</v>
+        <v>0.999805053087476</v>
       </c>
       <c r="Q10">
-        <v>0.9999840634635833</v>
+        <v>0.999805053087476</v>
       </c>
       <c r="R10">
-        <v>0.9999940222660165</v>
+        <v>0.9999268909704524</v>
       </c>
       <c r="S10">
-        <v>0.9999940222660165</v>
+        <v>0.9999268909704524</v>
       </c>
       <c r="T10">
-        <v>0.9999978733127538</v>
+        <v>0.9999740018654943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000039644101751</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="D11">
-        <v>1.000039644101751</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="E11">
-        <v>0.9999127766152982</v>
+        <v>0.999895348266674</v>
       </c>
       <c r="F11">
-        <v>1.000105721258681</v>
+        <v>1.000126846980462</v>
       </c>
       <c r="G11">
-        <v>0.9998414126576537</v>
+        <v>0.9998097244577141</v>
       </c>
       <c r="H11">
-        <v>1.000039644101751</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="I11">
-        <v>1.000039644101751</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="J11">
-        <v>0.9998414126576537</v>
+        <v>0.9998097244577141</v>
       </c>
       <c r="K11">
-        <v>1.000039644101751</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="L11">
-        <v>1.000039644101751</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="M11">
-        <v>0.9999405283797025</v>
+        <v>0.9999286449802571</v>
       </c>
       <c r="N11">
-        <v>0.9999405283797025</v>
+        <v>0.9999286449802571</v>
       </c>
       <c r="O11">
-        <v>0.9999312777915677</v>
+        <v>0.9999175460757295</v>
       </c>
       <c r="P11">
-        <v>0.9999735669537188</v>
+        <v>0.9999682851544381</v>
       </c>
       <c r="Q11">
-        <v>0.9999735669537188</v>
+        <v>0.9999682851544381</v>
       </c>
       <c r="R11">
-        <v>0.9999900862407269</v>
+        <v>0.9999881052415286</v>
       </c>
       <c r="S11">
-        <v>0.9999900862407269</v>
+        <v>0.9999881052415286</v>
       </c>
       <c r="T11">
-        <v>0.9999964738061479</v>
+        <v>0.9999957693688751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996486101319245</v>
+        <v>1.0000227302546</v>
       </c>
       <c r="D12">
-        <v>0.9996486101319245</v>
+        <v>1.0000227302546</v>
       </c>
       <c r="E12">
-        <v>1.000773063849194</v>
+        <v>0.9999499866611082</v>
       </c>
       <c r="F12">
-        <v>0.9990629555213433</v>
+        <v>1.0000606189699</v>
       </c>
       <c r="G12">
-        <v>1.00140555661252</v>
+        <v>0.999909066744839</v>
       </c>
       <c r="H12">
-        <v>0.9996486101319245</v>
+        <v>1.0000227302546</v>
       </c>
       <c r="I12">
-        <v>0.9996486101319245</v>
+        <v>1.0000227302546</v>
       </c>
       <c r="J12">
-        <v>1.00140555661252</v>
+        <v>0.999909066744839</v>
       </c>
       <c r="K12">
-        <v>0.9996486101319245</v>
+        <v>1.0000227302546</v>
       </c>
       <c r="L12">
-        <v>0.9996486101319245</v>
+        <v>1.0000227302546</v>
       </c>
       <c r="M12">
-        <v>1.000527083372222</v>
+        <v>0.9999658984997193</v>
       </c>
       <c r="N12">
-        <v>1.000527083372222</v>
+        <v>0.9999658984997193</v>
       </c>
       <c r="O12">
-        <v>1.000609076864546</v>
+        <v>0.9999605945535156</v>
       </c>
       <c r="P12">
-        <v>1.00023425895879</v>
+        <v>0.9999848424180128</v>
       </c>
       <c r="Q12">
-        <v>1.00023425895879</v>
+        <v>0.9999848424180128</v>
       </c>
       <c r="R12">
-        <v>1.000087846752073</v>
+        <v>0.9999943143771595</v>
       </c>
       <c r="S12">
-        <v>1.000087846752073</v>
+        <v>0.9999943143771595</v>
       </c>
       <c r="T12">
-        <v>1.000031234396472</v>
+        <v>0.999997977189941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999909272782855</v>
+        <v>1.000076586373361</v>
       </c>
       <c r="D13">
-        <v>0.999909272782855</v>
+        <v>1.000076586373361</v>
       </c>
       <c r="E13">
-        <v>1.000199595934479</v>
+        <v>0.999831502323146</v>
       </c>
       <c r="F13">
-        <v>0.9997580687530724</v>
+        <v>1.000204229098481</v>
       </c>
       <c r="G13">
-        <v>1.000362896813908</v>
+        <v>0.999693645012787</v>
       </c>
       <c r="H13">
-        <v>0.999909272782855</v>
+        <v>1.000076586373361</v>
       </c>
       <c r="I13">
-        <v>0.999909272782855</v>
+        <v>1.000076586373361</v>
       </c>
       <c r="J13">
-        <v>1.000362896813908</v>
+        <v>0.999693645012787</v>
       </c>
       <c r="K13">
-        <v>0.999909272782855</v>
+        <v>1.000076586373361</v>
       </c>
       <c r="L13">
-        <v>0.999909272782855</v>
+        <v>1.000076586373361</v>
       </c>
       <c r="M13">
-        <v>1.000136084798382</v>
+        <v>0.9998851156930739</v>
       </c>
       <c r="N13">
-        <v>1.000136084798382</v>
+        <v>0.9998851156930739</v>
       </c>
       <c r="O13">
-        <v>1.000157255177081</v>
+        <v>0.9998672445697646</v>
       </c>
       <c r="P13">
-        <v>1.000060480793206</v>
+        <v>0.9999489392531696</v>
       </c>
       <c r="Q13">
-        <v>1.000060480793206</v>
+        <v>0.9999489392531696</v>
       </c>
       <c r="R13">
-        <v>1.000022678790618</v>
+        <v>0.9999808510332174</v>
       </c>
       <c r="S13">
-        <v>1.000022678790618</v>
+        <v>0.9999808510332174</v>
       </c>
       <c r="T13">
-        <v>1.000008063308337</v>
+        <v>0.9999931892590826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996486424011988</v>
+        <v>1.000121475790237</v>
       </c>
       <c r="D14">
-        <v>0.9996486424011988</v>
+        <v>1.000121475790237</v>
       </c>
       <c r="E14">
-        <v>1.000773004385404</v>
+        <v>0.9997327415583815</v>
       </c>
       <c r="F14">
-        <v>0.9990630104080043</v>
+        <v>1.000323948346837</v>
       </c>
       <c r="G14">
-        <v>1.001405481566587</v>
+        <v>0.9995140730807167</v>
       </c>
       <c r="H14">
-        <v>0.9996486424011988</v>
+        <v>1.000121475790237</v>
       </c>
       <c r="I14">
-        <v>0.9996486424011988</v>
+        <v>1.000121475790237</v>
       </c>
       <c r="J14">
-        <v>1.001405481566587</v>
+        <v>0.9995140730807167</v>
       </c>
       <c r="K14">
-        <v>0.9996486424011988</v>
+        <v>1.000121475790237</v>
       </c>
       <c r="L14">
-        <v>0.9996486424011988</v>
+        <v>1.000121475790237</v>
       </c>
       <c r="M14">
-        <v>1.000527061983893</v>
+        <v>0.9998177744354766</v>
       </c>
       <c r="N14">
-        <v>1.000527061983893</v>
+        <v>0.9998177744354766</v>
       </c>
       <c r="O14">
-        <v>1.000609042784397</v>
+        <v>0.9997894301431116</v>
       </c>
       <c r="P14">
-        <v>1.000234255456328</v>
+        <v>0.9999190082203966</v>
       </c>
       <c r="Q14">
-        <v>1.000234255456328</v>
+        <v>0.9999190082203966</v>
       </c>
       <c r="R14">
-        <v>1.000087852192546</v>
+        <v>0.9999696251128566</v>
       </c>
       <c r="S14">
-        <v>1.000087852192546</v>
+        <v>0.9999696251128566</v>
       </c>
       <c r="T14">
-        <v>1.000031237260599</v>
+        <v>0.9999891983927741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999092733264643</v>
+        <v>1.0000435644784</v>
       </c>
       <c r="D15">
-        <v>0.9999092733264643</v>
+        <v>1.0000435644784</v>
       </c>
       <c r="E15">
-        <v>1.000199579228749</v>
+        <v>0.9999041504723887</v>
       </c>
       <c r="F15">
-        <v>0.9997580843080667</v>
+        <v>1.000116177578881</v>
       </c>
       <c r="G15">
-        <v>1.000362865507851</v>
+        <v>0.9998257281777405</v>
       </c>
       <c r="H15">
-        <v>0.9999092733264643</v>
+        <v>1.0000435644784</v>
       </c>
       <c r="I15">
-        <v>0.9999092733264643</v>
+        <v>1.0000435644784</v>
       </c>
       <c r="J15">
-        <v>1.000362865507851</v>
+        <v>0.9998257281777405</v>
       </c>
       <c r="K15">
-        <v>0.9999092733264643</v>
+        <v>1.0000435644784</v>
       </c>
       <c r="L15">
-        <v>0.9999092733264643</v>
+        <v>1.0000435644784</v>
       </c>
       <c r="M15">
-        <v>1.000136069417158</v>
+        <v>0.9999346463280701</v>
       </c>
       <c r="N15">
-        <v>1.000136069417158</v>
+        <v>0.9999346463280701</v>
       </c>
       <c r="O15">
-        <v>1.000157239354355</v>
+        <v>0.9999244810428429</v>
       </c>
       <c r="P15">
-        <v>1.00006047072026</v>
+        <v>0.9999709523781798</v>
       </c>
       <c r="Q15">
-        <v>1.00006047072026</v>
+        <v>0.9999709523781798</v>
       </c>
       <c r="R15">
-        <v>1.000022671371811</v>
+        <v>0.9999891054032348</v>
       </c>
       <c r="S15">
-        <v>1.000022671371811</v>
+        <v>0.9999891054032348</v>
       </c>
       <c r="T15">
-        <v>1.000008058170677</v>
+        <v>0.9999961249440347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000849766550922</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="D16">
-        <v>1.000849766550922</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="E16">
-        <v>0.9981304711217371</v>
+        <v>0.9998149644294945</v>
       </c>
       <c r="F16">
-        <v>1.002266078051401</v>
+        <v>1.00022427837473</v>
       </c>
       <c r="G16">
-        <v>0.996600856947755</v>
+        <v>0.9996635718396775</v>
       </c>
       <c r="H16">
-        <v>1.000849766550922</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="I16">
-        <v>1.000849766550922</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="J16">
-        <v>0.996600856947755</v>
+        <v>0.9996635718396775</v>
       </c>
       <c r="K16">
-        <v>1.000849766550922</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="L16">
-        <v>1.000849766550922</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="M16">
-        <v>0.9987253117493384</v>
+        <v>0.9998738376359158</v>
       </c>
       <c r="N16">
-        <v>0.9987253117493384</v>
+        <v>0.9998738376359158</v>
       </c>
       <c r="O16">
-        <v>0.9985270315401381</v>
+        <v>0.9998542132337752</v>
       </c>
       <c r="P16">
-        <v>0.9994334633498663</v>
+        <v>0.9999439262346619</v>
       </c>
       <c r="Q16">
-        <v>0.9994334633498663</v>
+        <v>0.9999439262346619</v>
       </c>
       <c r="R16">
-        <v>0.9997875391501302</v>
+        <v>0.9999789705340349</v>
       </c>
       <c r="S16">
-        <v>0.9997875391501302</v>
+        <v>0.9999789705340349</v>
       </c>
       <c r="T16">
-        <v>0.9999244509622764</v>
+        <v>0.999992520823394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000695361519682</v>
+        <v>1.000161172988494</v>
       </c>
       <c r="D17">
-        <v>1.000695361519682</v>
+        <v>1.000161172988494</v>
       </c>
       <c r="E17">
-        <v>0.9984701727791344</v>
+        <v>0.9996454013493077</v>
       </c>
       <c r="F17">
-        <v>1.001854323548584</v>
+        <v>1.000429808409933</v>
       </c>
       <c r="G17">
-        <v>0.9972184960630034</v>
+        <v>0.9993552770611227</v>
       </c>
       <c r="H17">
-        <v>1.000695361519682</v>
+        <v>1.000161172988494</v>
       </c>
       <c r="I17">
-        <v>1.000695361519682</v>
+        <v>1.000161172988494</v>
       </c>
       <c r="J17">
-        <v>0.9972184960630034</v>
+        <v>0.9993552770611227</v>
       </c>
       <c r="K17">
-        <v>1.000695361519682</v>
+        <v>1.000161172988494</v>
       </c>
       <c r="L17">
-        <v>1.000695361519682</v>
+        <v>1.000161172988494</v>
       </c>
       <c r="M17">
-        <v>0.9989569287913427</v>
+        <v>0.9997582250248085</v>
       </c>
       <c r="N17">
-        <v>0.9989569287913427</v>
+        <v>0.9997582250248085</v>
       </c>
       <c r="O17">
-        <v>0.9987946767872732</v>
+        <v>0.9997206171329749</v>
       </c>
       <c r="P17">
-        <v>0.9995364063674558</v>
+        <v>0.9998925410127036</v>
       </c>
       <c r="Q17">
-        <v>0.9995364063674558</v>
+        <v>0.9998925410127036</v>
       </c>
       <c r="R17">
-        <v>0.9998261451555124</v>
+        <v>0.9999596990066513</v>
       </c>
       <c r="S17">
-        <v>0.9998261451555124</v>
+        <v>0.9999596990066513</v>
       </c>
       <c r="T17">
-        <v>0.999938179491628</v>
+        <v>0.9999856676309743</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000384885277747</v>
+        <v>1.000236390526831</v>
       </c>
       <c r="D18">
-        <v>1.000384885277747</v>
+        <v>1.000236390526831</v>
       </c>
       <c r="E18">
-        <v>0.9991532418643347</v>
+        <v>0.9994799233807694</v>
       </c>
       <c r="F18">
-        <v>1.001026371188203</v>
+        <v>1.000630389056594</v>
       </c>
       <c r="G18">
-        <v>0.9984604402029816</v>
+        <v>0.99905439670433</v>
       </c>
       <c r="H18">
-        <v>1.000384885277747</v>
+        <v>1.000236390526831</v>
       </c>
       <c r="I18">
-        <v>1.000384885277747</v>
+        <v>1.000236390526831</v>
       </c>
       <c r="J18">
-        <v>0.9984604402029816</v>
+        <v>0.99905439670433</v>
       </c>
       <c r="K18">
-        <v>1.000384885277747</v>
+        <v>1.000236390526831</v>
       </c>
       <c r="L18">
-        <v>1.000384885277747</v>
+        <v>1.000236390526831</v>
       </c>
       <c r="M18">
-        <v>0.9994226627403642</v>
+        <v>0.9996453936155807</v>
       </c>
       <c r="N18">
-        <v>0.9994226627403642</v>
+        <v>0.9996453936155807</v>
       </c>
       <c r="O18">
-        <v>0.9993328557816877</v>
+        <v>0.9995902368706435</v>
       </c>
       <c r="P18">
-        <v>0.9997434035861583</v>
+        <v>0.9998423925859976</v>
       </c>
       <c r="Q18">
-        <v>0.9997434035861583</v>
+        <v>0.9998423925859976</v>
       </c>
       <c r="R18">
-        <v>0.9999037740090554</v>
+        <v>0.9999408920712061</v>
       </c>
       <c r="S18">
-        <v>0.9999037740090554</v>
+        <v>0.9999408920712061</v>
       </c>
       <c r="T18">
-        <v>0.9999657848481266</v>
+        <v>0.9999789801203646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000420145495844</v>
+        <v>1.00000310384717</v>
       </c>
       <c r="D19">
-        <v>1.000420145495844</v>
+        <v>1.00000310384717</v>
       </c>
       <c r="E19">
-        <v>0.9990756670457175</v>
+        <v>0.9999931657389104</v>
       </c>
       <c r="F19">
-        <v>1.001120402730737</v>
+        <v>1.000008281127253</v>
       </c>
       <c r="G19">
-        <v>0.9983193926238842</v>
+        <v>0.9999875741418895</v>
       </c>
       <c r="H19">
-        <v>1.000420145495844</v>
+        <v>1.00000310384717</v>
       </c>
       <c r="I19">
-        <v>1.000420145495844</v>
+        <v>1.00000310384717</v>
       </c>
       <c r="J19">
-        <v>0.9983193926238842</v>
+        <v>0.9999875741418895</v>
       </c>
       <c r="K19">
-        <v>1.000420145495844</v>
+        <v>1.00000310384717</v>
       </c>
       <c r="L19">
-        <v>1.000420145495844</v>
+        <v>1.00000310384717</v>
       </c>
       <c r="M19">
-        <v>0.9993697690598643</v>
+        <v>0.9999953389945295</v>
       </c>
       <c r="N19">
-        <v>0.9993697690598643</v>
+        <v>0.9999953389945295</v>
       </c>
       <c r="O19">
-        <v>0.9992717350551487</v>
+        <v>0.9999946145759898</v>
       </c>
       <c r="P19">
-        <v>0.9997198945385243</v>
+        <v>0.9999979272787428</v>
       </c>
       <c r="Q19">
-        <v>0.9997198945385243</v>
+        <v>0.9999979272787428</v>
       </c>
       <c r="R19">
-        <v>0.9998949572778543</v>
+        <v>0.9999992214208495</v>
       </c>
       <c r="S19">
-        <v>0.9998949572778543</v>
+        <v>0.9999992214208495</v>
       </c>
       <c r="T19">
-        <v>0.9999626498146453</v>
+        <v>0.9999997220915936</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000177758946</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="D20">
-        <v>1.000000177758946</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="E20">
-        <v>0.9999996033273452</v>
+        <v>0.99998258195117</v>
       </c>
       <c r="F20">
-        <v>1.000000477964708</v>
+        <v>1.000021109770445</v>
       </c>
       <c r="G20">
-        <v>0.9999992787978677</v>
+        <v>0.9999683310968902</v>
       </c>
       <c r="H20">
-        <v>1.000000177758946</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="I20">
-        <v>1.000000177758946</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="J20">
-        <v>0.9999992787978677</v>
+        <v>0.9999683310968902</v>
       </c>
       <c r="K20">
-        <v>1.000000177758946</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="L20">
-        <v>1.000000177758946</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="M20">
-        <v>0.9999997282784068</v>
+        <v>0.9999881228409697</v>
       </c>
       <c r="N20">
-        <v>0.9999997282784068</v>
+        <v>0.9999881228409697</v>
       </c>
       <c r="O20">
-        <v>0.9999996866280529</v>
+        <v>0.9999862758777032</v>
       </c>
       <c r="P20">
-        <v>0.9999998781052533</v>
+        <v>0.9999947200889961</v>
       </c>
       <c r="Q20">
-        <v>0.9999998781052533</v>
+        <v>0.9999947200889961</v>
       </c>
       <c r="R20">
-        <v>0.9999999530186765</v>
+        <v>0.9999980187130095</v>
       </c>
       <c r="S20">
-        <v>0.9999999530186765</v>
+        <v>0.9999980187130095</v>
       </c>
       <c r="T20">
-        <v>0.9999999822277933</v>
+        <v>0.9999992944289423</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00000380783798</v>
+        <v>1.000011082358393</v>
       </c>
       <c r="D21">
-        <v>1.00000380783798</v>
+        <v>1.000011082358393</v>
       </c>
       <c r="E21">
-        <v>0.9999916168694244</v>
+        <v>0.9999756126952072</v>
       </c>
       <c r="F21">
-        <v>1.000010158574918</v>
+        <v>1.000029557499341</v>
       </c>
       <c r="G21">
-        <v>0.9999847580500367</v>
+        <v>0.9999556593850548</v>
       </c>
       <c r="H21">
-        <v>1.00000380783798</v>
+        <v>1.000011082358393</v>
       </c>
       <c r="I21">
-        <v>1.00000380783798</v>
+        <v>1.000011082358393</v>
       </c>
       <c r="J21">
-        <v>0.9999847580500367</v>
+        <v>0.9999556593850548</v>
       </c>
       <c r="K21">
-        <v>1.00000380783798</v>
+        <v>1.000011082358393</v>
       </c>
       <c r="L21">
-        <v>1.00000380783798</v>
+        <v>1.000011082358393</v>
       </c>
       <c r="M21">
-        <v>0.9999942829440084</v>
+        <v>0.9999833708717241</v>
       </c>
       <c r="N21">
-        <v>0.9999942829440084</v>
+        <v>0.9999833708717241</v>
       </c>
       <c r="O21">
-        <v>0.9999933942524803</v>
+        <v>0.9999807848128851</v>
       </c>
       <c r="P21">
-        <v>0.9999974579086656</v>
+        <v>0.9999926080339471</v>
       </c>
       <c r="Q21">
-        <v>0.9999974579086656</v>
+        <v>0.9999926080339471</v>
       </c>
       <c r="R21">
-        <v>0.9999990453909942</v>
+        <v>0.9999972266150586</v>
       </c>
       <c r="S21">
-        <v>0.9999990453909942</v>
+        <v>0.9999972266150586</v>
       </c>
       <c r="T21">
-        <v>0.9999996595013866</v>
+        <v>0.9999990127757972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000013411865979</v>
+        <v>1.000023898673316</v>
       </c>
       <c r="D22">
-        <v>1.000013411865979</v>
+        <v>1.000023898673316</v>
       </c>
       <c r="E22">
-        <v>0.9999704863680985</v>
+        <v>0.9999474160759559</v>
       </c>
       <c r="F22">
-        <v>1.000035770467426</v>
+        <v>1.000063734736501</v>
       </c>
       <c r="G22">
-        <v>0.9999463408197057</v>
+        <v>0.9999043930441174</v>
       </c>
       <c r="H22">
-        <v>1.000013411865979</v>
+        <v>1.000023898673316</v>
       </c>
       <c r="I22">
-        <v>1.000013411865979</v>
+        <v>1.000023898673316</v>
       </c>
       <c r="J22">
-        <v>0.9999463408197057</v>
+        <v>0.9999043930441174</v>
       </c>
       <c r="K22">
-        <v>1.000013411865979</v>
+        <v>1.000023898673316</v>
       </c>
       <c r="L22">
-        <v>1.000013411865979</v>
+        <v>1.000023898673316</v>
       </c>
       <c r="M22">
-        <v>0.9999798763428425</v>
+        <v>0.9999641458587168</v>
       </c>
       <c r="N22">
-        <v>0.9999798763428425</v>
+        <v>0.9999641458587168</v>
       </c>
       <c r="O22">
-        <v>0.9999767463512611</v>
+        <v>0.9999585692644631</v>
       </c>
       <c r="P22">
-        <v>0.9999910548505547</v>
+        <v>0.9999840634635833</v>
       </c>
       <c r="Q22">
-        <v>0.9999910548505547</v>
+        <v>0.9999840634635833</v>
       </c>
       <c r="R22">
-        <v>0.9999966441044108</v>
+        <v>0.9999940222660165</v>
       </c>
       <c r="S22">
-        <v>0.9999966441044108</v>
+        <v>0.9999940222660165</v>
       </c>
       <c r="T22">
-        <v>0.9999988055421944</v>
+        <v>0.9999978733127538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="D23">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="E23">
+        <v>0.9999127766152982</v>
+      </c>
+      <c r="F23">
+        <v>1.000105721258681</v>
+      </c>
+      <c r="G23">
+        <v>0.9998414126576537</v>
+      </c>
+      <c r="H23">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="I23">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="J23">
+        <v>0.9998414126576537</v>
+      </c>
+      <c r="K23">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="L23">
+        <v>1.000039644101751</v>
+      </c>
+      <c r="M23">
+        <v>0.9999405283797025</v>
+      </c>
+      <c r="N23">
+        <v>0.9999405283797025</v>
+      </c>
+      <c r="O23">
+        <v>0.9999312777915677</v>
+      </c>
+      <c r="P23">
+        <v>0.9999735669537188</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999735669537188</v>
+      </c>
+      <c r="R23">
+        <v>0.9999900862407269</v>
+      </c>
+      <c r="S23">
+        <v>0.9999900862407269</v>
+      </c>
+      <c r="T23">
+        <v>0.9999964738061479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="D24">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="E24">
+        <v>1.000773063849194</v>
+      </c>
+      <c r="F24">
+        <v>0.9990629555213433</v>
+      </c>
+      <c r="G24">
+        <v>1.00140555661252</v>
+      </c>
+      <c r="H24">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="I24">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="J24">
+        <v>1.00140555661252</v>
+      </c>
+      <c r="K24">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="L24">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="M24">
+        <v>1.000527083372222</v>
+      </c>
+      <c r="N24">
+        <v>1.000527083372222</v>
+      </c>
+      <c r="O24">
+        <v>1.000609076864546</v>
+      </c>
+      <c r="P24">
+        <v>1.00023425895879</v>
+      </c>
+      <c r="Q24">
+        <v>1.00023425895879</v>
+      </c>
+      <c r="R24">
+        <v>1.000087846752073</v>
+      </c>
+      <c r="S24">
+        <v>1.000087846752073</v>
+      </c>
+      <c r="T24">
+        <v>1.000031234396472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="D25">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="E25">
+        <v>1.000199595934479</v>
+      </c>
+      <c r="F25">
+        <v>0.9997580687530724</v>
+      </c>
+      <c r="G25">
+        <v>1.000362896813908</v>
+      </c>
+      <c r="H25">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="I25">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="J25">
+        <v>1.000362896813908</v>
+      </c>
+      <c r="K25">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="L25">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="M25">
+        <v>1.000136084798382</v>
+      </c>
+      <c r="N25">
+        <v>1.000136084798382</v>
+      </c>
+      <c r="O25">
+        <v>1.000157255177081</v>
+      </c>
+      <c r="P25">
+        <v>1.000060480793206</v>
+      </c>
+      <c r="Q25">
+        <v>1.000060480793206</v>
+      </c>
+      <c r="R25">
+        <v>1.000022678790618</v>
+      </c>
+      <c r="S25">
+        <v>1.000022678790618</v>
+      </c>
+      <c r="T25">
+        <v>1.000008063308337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="D26">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="E26">
+        <v>1.000773004385404</v>
+      </c>
+      <c r="F26">
+        <v>0.9990630104080043</v>
+      </c>
+      <c r="G26">
+        <v>1.001405481566587</v>
+      </c>
+      <c r="H26">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="I26">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="J26">
+        <v>1.001405481566587</v>
+      </c>
+      <c r="K26">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="L26">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="M26">
+        <v>1.000527061983893</v>
+      </c>
+      <c r="N26">
+        <v>1.000527061983893</v>
+      </c>
+      <c r="O26">
+        <v>1.000609042784397</v>
+      </c>
+      <c r="P26">
+        <v>1.000234255456328</v>
+      </c>
+      <c r="Q26">
+        <v>1.000234255456328</v>
+      </c>
+      <c r="R26">
+        <v>1.000087852192546</v>
+      </c>
+      <c r="S26">
+        <v>1.000087852192546</v>
+      </c>
+      <c r="T26">
+        <v>1.000031237260599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="D27">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="E27">
+        <v>1.000199579228749</v>
+      </c>
+      <c r="F27">
+        <v>0.9997580843080667</v>
+      </c>
+      <c r="G27">
+        <v>1.000362865507851</v>
+      </c>
+      <c r="H27">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="I27">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="J27">
+        <v>1.000362865507851</v>
+      </c>
+      <c r="K27">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="L27">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="M27">
+        <v>1.000136069417158</v>
+      </c>
+      <c r="N27">
+        <v>1.000136069417158</v>
+      </c>
+      <c r="O27">
+        <v>1.000157239354355</v>
+      </c>
+      <c r="P27">
+        <v>1.00006047072026</v>
+      </c>
+      <c r="Q27">
+        <v>1.00006047072026</v>
+      </c>
+      <c r="R27">
+        <v>1.000022671371811</v>
+      </c>
+      <c r="S27">
+        <v>1.000022671371811</v>
+      </c>
+      <c r="T27">
+        <v>1.000008058170677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000849766550922</v>
+      </c>
+      <c r="D28">
+        <v>1.000849766550922</v>
+      </c>
+      <c r="E28">
+        <v>0.9981304711217371</v>
+      </c>
+      <c r="F28">
+        <v>1.002266078051401</v>
+      </c>
+      <c r="G28">
+        <v>0.996600856947755</v>
+      </c>
+      <c r="H28">
+        <v>1.000849766550922</v>
+      </c>
+      <c r="I28">
+        <v>1.000849766550922</v>
+      </c>
+      <c r="J28">
+        <v>0.996600856947755</v>
+      </c>
+      <c r="K28">
+        <v>1.000849766550922</v>
+      </c>
+      <c r="L28">
+        <v>1.000849766550922</v>
+      </c>
+      <c r="M28">
+        <v>0.9987253117493384</v>
+      </c>
+      <c r="N28">
+        <v>0.9987253117493384</v>
+      </c>
+      <c r="O28">
+        <v>0.9985270315401381</v>
+      </c>
+      <c r="P28">
+        <v>0.9994334633498663</v>
+      </c>
+      <c r="Q28">
+        <v>0.9994334633498663</v>
+      </c>
+      <c r="R28">
+        <v>0.9997875391501302</v>
+      </c>
+      <c r="S28">
+        <v>0.9997875391501302</v>
+      </c>
+      <c r="T28">
+        <v>0.9999244509622764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000695361519682</v>
+      </c>
+      <c r="D29">
+        <v>1.000695361519682</v>
+      </c>
+      <c r="E29">
+        <v>0.9984701727791344</v>
+      </c>
+      <c r="F29">
+        <v>1.001854323548584</v>
+      </c>
+      <c r="G29">
+        <v>0.9972184960630034</v>
+      </c>
+      <c r="H29">
+        <v>1.000695361519682</v>
+      </c>
+      <c r="I29">
+        <v>1.000695361519682</v>
+      </c>
+      <c r="J29">
+        <v>0.9972184960630034</v>
+      </c>
+      <c r="K29">
+        <v>1.000695361519682</v>
+      </c>
+      <c r="L29">
+        <v>1.000695361519682</v>
+      </c>
+      <c r="M29">
+        <v>0.9989569287913427</v>
+      </c>
+      <c r="N29">
+        <v>0.9989569287913427</v>
+      </c>
+      <c r="O29">
+        <v>0.9987946767872732</v>
+      </c>
+      <c r="P29">
+        <v>0.9995364063674558</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995364063674558</v>
+      </c>
+      <c r="R29">
+        <v>0.9998261451555124</v>
+      </c>
+      <c r="S29">
+        <v>0.9998261451555124</v>
+      </c>
+      <c r="T29">
+        <v>0.999938179491628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000384885277747</v>
+      </c>
+      <c r="D30">
+        <v>1.000384885277747</v>
+      </c>
+      <c r="E30">
+        <v>0.9991532418643347</v>
+      </c>
+      <c r="F30">
+        <v>1.001026371188203</v>
+      </c>
+      <c r="G30">
+        <v>0.9984604402029816</v>
+      </c>
+      <c r="H30">
+        <v>1.000384885277747</v>
+      </c>
+      <c r="I30">
+        <v>1.000384885277747</v>
+      </c>
+      <c r="J30">
+        <v>0.9984604402029816</v>
+      </c>
+      <c r="K30">
+        <v>1.000384885277747</v>
+      </c>
+      <c r="L30">
+        <v>1.000384885277747</v>
+      </c>
+      <c r="M30">
+        <v>0.9994226627403642</v>
+      </c>
+      <c r="N30">
+        <v>0.9994226627403642</v>
+      </c>
+      <c r="O30">
+        <v>0.9993328557816877</v>
+      </c>
+      <c r="P30">
+        <v>0.9997434035861583</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997434035861583</v>
+      </c>
+      <c r="R30">
+        <v>0.9999037740090554</v>
+      </c>
+      <c r="S30">
+        <v>0.9999037740090554</v>
+      </c>
+      <c r="T30">
+        <v>0.9999657848481266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="D31">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="E31">
+        <v>0.9990756670457175</v>
+      </c>
+      <c r="F31">
+        <v>1.001120402730737</v>
+      </c>
+      <c r="G31">
+        <v>0.9983193926238842</v>
+      </c>
+      <c r="H31">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="I31">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="J31">
+        <v>0.9983193926238842</v>
+      </c>
+      <c r="K31">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="L31">
+        <v>1.000420145495844</v>
+      </c>
+      <c r="M31">
+        <v>0.9993697690598643</v>
+      </c>
+      <c r="N31">
+        <v>0.9993697690598643</v>
+      </c>
+      <c r="O31">
+        <v>0.9992717350551487</v>
+      </c>
+      <c r="P31">
+        <v>0.9997198945385243</v>
+      </c>
+      <c r="Q31">
+        <v>0.9997198945385243</v>
+      </c>
+      <c r="R31">
+        <v>0.9998949572778543</v>
+      </c>
+      <c r="S31">
+        <v>0.9998949572778543</v>
+      </c>
+      <c r="T31">
+        <v>0.9999626498146453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.001005500000001</v>
+      </c>
+      <c r="D32">
+        <v>1.001005500000001</v>
+      </c>
+      <c r="E32">
+        <v>0.9977878464383563</v>
+      </c>
+      <c r="F32">
+        <v>1.002681375342467</v>
+      </c>
+      <c r="G32">
+        <v>0.995977903287671</v>
+      </c>
+      <c r="H32">
+        <v>1.001005500000001</v>
+      </c>
+      <c r="I32">
+        <v>1.001005500000001</v>
+      </c>
+      <c r="J32">
+        <v>0.995977903287671</v>
+      </c>
+      <c r="K32">
+        <v>1.001005500000001</v>
+      </c>
+      <c r="L32">
+        <v>1.001005500000001</v>
+      </c>
+      <c r="M32">
+        <v>0.9984917016438359</v>
+      </c>
+      <c r="N32">
+        <v>0.9984917016438359</v>
+      </c>
+      <c r="O32">
+        <v>0.9982570832420095</v>
+      </c>
+      <c r="P32">
+        <v>0.9993296344292242</v>
+      </c>
+      <c r="Q32">
+        <v>0.9993296344292242</v>
+      </c>
+      <c r="R32">
+        <v>0.9997486008219183</v>
+      </c>
+      <c r="S32">
+        <v>0.9997486008219183</v>
+      </c>
+      <c r="T32">
+        <v>0.9999106041780826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000454256842105</v>
+      </c>
+      <c r="D33">
+        <v>1.000454256842105</v>
+      </c>
+      <c r="E33">
+        <v>0.999000637894737</v>
+      </c>
+      <c r="F33">
+        <v>1.001211345263158</v>
+      </c>
+      <c r="G33">
+        <v>0.9981829821052631</v>
+      </c>
+      <c r="H33">
+        <v>1.000454256842105</v>
+      </c>
+      <c r="I33">
+        <v>1.000454256842105</v>
+      </c>
+      <c r="J33">
+        <v>0.9981829821052631</v>
+      </c>
+      <c r="K33">
+        <v>1.000454256842105</v>
+      </c>
+      <c r="L33">
+        <v>1.000454256842105</v>
+      </c>
+      <c r="M33">
+        <v>0.9993186194736843</v>
+      </c>
+      <c r="N33">
+        <v>0.9993186194736843</v>
+      </c>
+      <c r="O33">
+        <v>0.9992126256140352</v>
+      </c>
+      <c r="P33">
+        <v>0.999697165263158</v>
+      </c>
+      <c r="Q33">
+        <v>0.999697165263158</v>
+      </c>
+      <c r="R33">
+        <v>0.9998864381578948</v>
+      </c>
+      <c r="S33">
+        <v>0.9998864381578948</v>
+      </c>
+      <c r="T33">
+        <v>0.9999596226315789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="D34">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="E34">
+        <v>0.9990006689473683</v>
+      </c>
+      <c r="F34">
+        <v>1.001211297368421</v>
+      </c>
+      <c r="G34">
+        <v>0.9981830442105264</v>
+      </c>
+      <c r="H34">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="I34">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="J34">
+        <v>0.9981830442105264</v>
+      </c>
+      <c r="K34">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="L34">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="M34">
+        <v>0.9993186373684211</v>
+      </c>
+      <c r="N34">
+        <v>0.9993186373684211</v>
+      </c>
+      <c r="O34">
+        <v>0.9992126478947368</v>
+      </c>
+      <c r="P34">
+        <v>0.9996971684210526</v>
+      </c>
+      <c r="Q34">
+        <v>0.9996971684210526</v>
+      </c>
+      <c r="R34">
+        <v>0.9998864339473684</v>
+      </c>
+      <c r="S34">
+        <v>0.9998864339473684</v>
+      </c>
+      <c r="T34">
+        <v>0.9999596170175439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.00152923362354</v>
+      </c>
+      <c r="D35">
+        <v>1.00152923362354</v>
+      </c>
+      <c r="E35">
+        <v>0.9966356809111224</v>
+      </c>
+      <c r="F35">
+        <v>1.004077961598636</v>
+      </c>
+      <c r="G35">
+        <v>0.9938830608181222</v>
+      </c>
+      <c r="H35">
+        <v>1.00152923362354</v>
+      </c>
+      <c r="I35">
+        <v>1.00152923362354</v>
+      </c>
+      <c r="J35">
+        <v>0.9938830608181222</v>
+      </c>
+      <c r="K35">
+        <v>1.00152923362354</v>
+      </c>
+      <c r="L35">
+        <v>1.00152923362354</v>
+      </c>
+      <c r="M35">
+        <v>0.9977061472208311</v>
+      </c>
+      <c r="N35">
+        <v>0.9977061472208311</v>
+      </c>
+      <c r="O35">
+        <v>0.9973493251175949</v>
+      </c>
+      <c r="P35">
+        <v>0.9989805093550673</v>
+      </c>
+      <c r="Q35">
+        <v>0.9989805093550673</v>
+      </c>
+      <c r="R35">
+        <v>0.9996176904221854</v>
+      </c>
+      <c r="S35">
+        <v>0.9996176904221854</v>
+      </c>
+      <c r="T35">
+        <v>0.9998640673664166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="D36">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="E36">
+        <v>0.9999996033273452</v>
+      </c>
+      <c r="F36">
+        <v>1.000000477964708</v>
+      </c>
+      <c r="G36">
+        <v>0.9999992787978677</v>
+      </c>
+      <c r="H36">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="I36">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="J36">
+        <v>0.9999992787978677</v>
+      </c>
+      <c r="K36">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="L36">
+        <v>1.000000177758946</v>
+      </c>
+      <c r="M36">
+        <v>0.9999997282784068</v>
+      </c>
+      <c r="N36">
+        <v>0.9999997282784068</v>
+      </c>
+      <c r="O36">
+        <v>0.9999996866280529</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998781052533</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999998781052533</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999530186765</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999530186765</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999822277933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="D37">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="E37">
+        <v>0.9999916168694244</v>
+      </c>
+      <c r="F37">
+        <v>1.000010158574918</v>
+      </c>
+      <c r="G37">
+        <v>0.9999847580500367</v>
+      </c>
+      <c r="H37">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="I37">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="J37">
+        <v>0.9999847580500367</v>
+      </c>
+      <c r="K37">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="L37">
+        <v>1.00000380783798</v>
+      </c>
+      <c r="M37">
+        <v>0.9999942829440084</v>
+      </c>
+      <c r="N37">
+        <v>0.9999942829440084</v>
+      </c>
+      <c r="O37">
+        <v>0.9999933942524803</v>
+      </c>
+      <c r="P37">
+        <v>0.9999974579086656</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999974579086656</v>
+      </c>
+      <c r="R37">
+        <v>0.9999990453909942</v>
+      </c>
+      <c r="S37">
+        <v>0.9999990453909942</v>
+      </c>
+      <c r="T37">
+        <v>0.9999996595013866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="D38">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="E38">
+        <v>0.9999704863680985</v>
+      </c>
+      <c r="F38">
+        <v>1.000035770467426</v>
+      </c>
+      <c r="G38">
+        <v>0.9999463408197057</v>
+      </c>
+      <c r="H38">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="I38">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="J38">
+        <v>0.9999463408197057</v>
+      </c>
+      <c r="K38">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="L38">
+        <v>1.000013411865979</v>
+      </c>
+      <c r="M38">
+        <v>0.9999798763428425</v>
+      </c>
+      <c r="N38">
+        <v>0.9999798763428425</v>
+      </c>
+      <c r="O38">
+        <v>0.9999767463512611</v>
+      </c>
+      <c r="P38">
+        <v>0.9999910548505547</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999910548505547</v>
+      </c>
+      <c r="R38">
+        <v>0.9999966441044108</v>
+      </c>
+      <c r="S38">
+        <v>0.9999966441044108</v>
+      </c>
+      <c r="T38">
+        <v>0.9999988055421944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000031420375409</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000031420375409</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9999308637638347</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000083803473926</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9998742949576677</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000031420375409</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000031420375409</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9998742949576677</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000031420375409</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000031420375409</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999528576665382</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999528576665382</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.999945526365637</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999790452361618</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999790452361618</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999921390209736</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999921390209736</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999972038869426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000143207840749</v>
+      </c>
+      <c r="D40">
+        <v>1.000143207840749</v>
+      </c>
+      <c r="E40">
+        <v>0.9996849450571536</v>
+      </c>
+      <c r="F40">
+        <v>1.000381878114374</v>
+      </c>
+      <c r="G40">
+        <v>0.9994271737293542</v>
+      </c>
+      <c r="H40">
+        <v>1.000143207840749</v>
+      </c>
+      <c r="I40">
+        <v>1.000143207840749</v>
+      </c>
+      <c r="J40">
+        <v>0.9994271737293542</v>
+      </c>
+      <c r="K40">
+        <v>1.000143207840749</v>
+      </c>
+      <c r="L40">
+        <v>1.000143207840749</v>
+      </c>
+      <c r="M40">
+        <v>0.9997851907850517</v>
+      </c>
+      <c r="N40">
+        <v>0.9997851907850517</v>
+      </c>
+      <c r="O40">
+        <v>0.999751775542419</v>
+      </c>
+      <c r="P40">
+        <v>0.9999045298036174</v>
+      </c>
+      <c r="Q40">
+        <v>0.9999045298036174</v>
+      </c>
+      <c r="R40">
+        <v>0.9999641993129005</v>
+      </c>
+      <c r="S40">
+        <v>0.9999641993129005</v>
+      </c>
+      <c r="T40">
+        <v>0.9999872700705216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999159555715892</v>
+      </c>
+      <c r="D41">
+        <v>0.9999159555715892</v>
+      </c>
+      <c r="E41">
+        <v>1.000184890883691</v>
+      </c>
+      <c r="F41">
+        <v>0.9997758872668284</v>
+      </c>
+      <c r="G41">
+        <v>1.000336164113089</v>
+      </c>
+      <c r="H41">
+        <v>0.9999159555715892</v>
+      </c>
+      <c r="I41">
+        <v>0.9999159555715892</v>
+      </c>
+      <c r="J41">
+        <v>1.000336164113089</v>
+      </c>
+      <c r="K41">
+        <v>0.9999159555715892</v>
+      </c>
+      <c r="L41">
+        <v>0.9999159555715892</v>
+      </c>
+      <c r="M41">
+        <v>1.000126059842339</v>
+      </c>
+      <c r="N41">
+        <v>1.000126059842339</v>
+      </c>
+      <c r="O41">
+        <v>1.000145670189456</v>
+      </c>
+      <c r="P41">
+        <v>1.000056025085422</v>
+      </c>
+      <c r="Q41">
+        <v>1.000056025085422</v>
+      </c>
+      <c r="R41">
+        <v>1.000021007706964</v>
+      </c>
+      <c r="S41">
+        <v>1.000021007706964</v>
+      </c>
+      <c r="T41">
+        <v>1.000007468163063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000556971154738</v>
+      </c>
+      <c r="D42">
+        <v>1.000556971154738</v>
+      </c>
+      <c r="E42">
+        <v>0.9987746562194865</v>
+      </c>
+      <c r="F42">
+        <v>1.001485259415585</v>
+      </c>
+      <c r="G42">
+        <v>0.9977721046926487</v>
+      </c>
+      <c r="H42">
+        <v>1.000556971154738</v>
+      </c>
+      <c r="I42">
+        <v>1.000556971154738</v>
+      </c>
+      <c r="J42">
+        <v>0.9977721046926487</v>
+      </c>
+      <c r="K42">
+        <v>1.000556971154738</v>
+      </c>
+      <c r="L42">
+        <v>1.000556971154738</v>
+      </c>
+      <c r="M42">
+        <v>0.9991645379236934</v>
+      </c>
+      <c r="N42">
+        <v>0.9991645379236934</v>
+      </c>
+      <c r="O42">
+        <v>0.9990345773556245</v>
+      </c>
+      <c r="P42">
+        <v>0.9996286823340417</v>
+      </c>
+      <c r="Q42">
+        <v>0.9996286823340417</v>
+      </c>
+      <c r="R42">
+        <v>0.9998607545392157</v>
+      </c>
+      <c r="S42">
+        <v>0.9998607545392157</v>
+      </c>
+      <c r="T42">
+        <v>0.9999504889653225</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0000435644784</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="D3">
-        <v>0.9998257281777405</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="E3">
-        <v>1.0000435644784</v>
+        <v>0.99998258195117</v>
       </c>
       <c r="F3">
-        <v>1.0000435644784</v>
+        <v>1.000021109770445</v>
       </c>
       <c r="G3">
-        <v>1.000116177578881</v>
+        <v>0.9999683310968902</v>
       </c>
       <c r="H3">
-        <v>0.9999041504723887</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="I3">
-        <v>1.0000435644784</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="J3">
-        <v>0.9998257281777405</v>
+        <v>0.9999683310968902</v>
       </c>
       <c r="K3">
-        <v>1.0000435644784</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="L3">
-        <v>1.0000435644784</v>
+        <v>1.000007914585049</v>
       </c>
       <c r="M3">
-        <v>0.9999346463280701</v>
+        <v>0.9999881228409697</v>
       </c>
       <c r="N3">
-        <v>0.9999346463280701</v>
+        <v>0.9999881228409697</v>
       </c>
       <c r="O3">
-        <v>0.9999244810428429</v>
+        <v>0.9999862758777032</v>
       </c>
       <c r="P3">
-        <v>0.9999709523781798</v>
+        <v>0.9999947200889961</v>
       </c>
       <c r="Q3">
-        <v>0.9999709523781798</v>
+        <v>0.9999947200889961</v>
       </c>
       <c r="R3">
-        <v>0.9999891054032348</v>
+        <v>0.9999980187130095</v>
       </c>
       <c r="S3">
-        <v>0.9999891054032348</v>
+        <v>0.9999980187130095</v>
       </c>
       <c r="T3">
-        <v>0.9999961249440347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999992944289423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084103432154</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="D4">
-        <v>0.9996635718396775</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="E4">
-        <v>1.000084103432154</v>
+        <v>0.9996849450571536</v>
       </c>
       <c r="F4">
-        <v>1.000084103432154</v>
+        <v>1.000381878114374</v>
       </c>
       <c r="G4">
-        <v>1.00022427837473</v>
+        <v>0.9994271737293542</v>
       </c>
       <c r="H4">
-        <v>0.9998149644294945</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="I4">
-        <v>1.000084103432154</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="J4">
-        <v>0.9996635718396775</v>
+        <v>0.9994271737293542</v>
       </c>
       <c r="K4">
-        <v>1.000084103432154</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="L4">
-        <v>1.000084103432154</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="M4">
-        <v>0.9998738376359158</v>
+        <v>0.9997851907850517</v>
       </c>
       <c r="N4">
-        <v>0.9998738376359158</v>
+        <v>0.9997851907850517</v>
       </c>
       <c r="O4">
-        <v>0.9998542132337752</v>
+        <v>0.999751775542419</v>
       </c>
       <c r="P4">
-        <v>0.9999439262346619</v>
+        <v>0.9999045298036174</v>
       </c>
       <c r="Q4">
-        <v>0.9999439262346619</v>
+        <v>0.9999045298036174</v>
       </c>
       <c r="R4">
-        <v>0.9999789705340349</v>
+        <v>0.9999641993129005</v>
       </c>
       <c r="S4">
-        <v>0.9999789705340349</v>
+        <v>0.9999641993129005</v>
       </c>
       <c r="T4">
-        <v>0.999992520823394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999872700705216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161172988494</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="D5">
-        <v>0.9993552770611227</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="E5">
-        <v>1.000161172988494</v>
+        <v>0.9989971196613877</v>
       </c>
       <c r="F5">
-        <v>1.000161172988494</v>
+        <v>1.001215609704613</v>
       </c>
       <c r="G5">
-        <v>1.000429808409933</v>
+        <v>0.9981765811887542</v>
       </c>
       <c r="H5">
-        <v>0.9996454013493077</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="I5">
-        <v>1.000161172988494</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="J5">
-        <v>0.9993552770611227</v>
+        <v>0.9981765811887542</v>
       </c>
       <c r="K5">
-        <v>1.000161172988494</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="L5">
-        <v>1.000161172988494</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="M5">
-        <v>0.9997582250248085</v>
+        <v>0.999316215327806</v>
       </c>
       <c r="N5">
-        <v>0.9997582250248085</v>
+        <v>0.999316215327806</v>
       </c>
       <c r="O5">
-        <v>0.9997206171329749</v>
+        <v>0.9992098501056667</v>
       </c>
       <c r="P5">
-        <v>0.9998925410127036</v>
+        <v>0.9996960933741565</v>
       </c>
       <c r="Q5">
-        <v>0.9998925410127036</v>
+        <v>0.9996960933741565</v>
       </c>
       <c r="R5">
-        <v>0.9999596990066513</v>
+        <v>0.9998860323973319</v>
       </c>
       <c r="S5">
-        <v>0.9999596990066513</v>
+        <v>0.9998860323973319</v>
       </c>
       <c r="T5">
-        <v>0.9999856676309743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999594764925547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236390526831</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="D6">
-        <v>0.99905439670433</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="E6">
-        <v>1.000236390526831</v>
+        <v>0.9966356809111224</v>
       </c>
       <c r="F6">
-        <v>1.000236390526831</v>
+        <v>1.004077961598636</v>
       </c>
       <c r="G6">
-        <v>1.000630389056594</v>
+        <v>0.9938830608181222</v>
       </c>
       <c r="H6">
-        <v>0.9994799233807694</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="I6">
-        <v>1.000236390526831</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="J6">
-        <v>0.99905439670433</v>
+        <v>0.9938830608181222</v>
       </c>
       <c r="K6">
-        <v>1.000236390526831</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="L6">
-        <v>1.000236390526831</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="M6">
-        <v>0.9996453936155807</v>
+        <v>0.9977061472208311</v>
       </c>
       <c r="N6">
-        <v>0.9996453936155807</v>
+        <v>0.9977061472208311</v>
       </c>
       <c r="O6">
-        <v>0.9995902368706435</v>
+        <v>0.9973493251175949</v>
       </c>
       <c r="P6">
-        <v>0.9998423925859976</v>
+        <v>0.9989805093550673</v>
       </c>
       <c r="Q6">
-        <v>0.9998423925859976</v>
+        <v>0.9989805093550673</v>
       </c>
       <c r="R6">
-        <v>0.9999408920712061</v>
+        <v>0.9996176904221854</v>
       </c>
       <c r="S6">
-        <v>0.9999408920712061</v>
+        <v>0.9996176904221854</v>
       </c>
       <c r="T6">
-        <v>0.9999789801203646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9998640673664166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00000310384717</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="D7">
-        <v>0.9999875741418895</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="E7">
-        <v>1.00000310384717</v>
+        <v>0.999895348266674</v>
       </c>
       <c r="F7">
-        <v>1.00000310384717</v>
+        <v>1.000126846980462</v>
       </c>
       <c r="G7">
-        <v>1.000008281127253</v>
+        <v>0.9998097244577141</v>
       </c>
       <c r="H7">
-        <v>0.9999931657389105</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="I7">
-        <v>1.00000310384717</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="J7">
-        <v>0.9999875741418895</v>
+        <v>0.9998097244577141</v>
       </c>
       <c r="K7">
-        <v>1.00000310384717</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="L7">
-        <v>1.00000310384717</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="M7">
-        <v>0.9999953389945295</v>
+        <v>0.9999286449802571</v>
       </c>
       <c r="N7">
-        <v>0.9999953389945295</v>
+        <v>0.9999286449802571</v>
       </c>
       <c r="O7">
-        <v>0.9999946145759898</v>
+        <v>0.9999175460757295</v>
       </c>
       <c r="P7">
-        <v>0.9999979272787428</v>
+        <v>0.9999682851544381</v>
       </c>
       <c r="Q7">
-        <v>0.9999979272787428</v>
+        <v>0.9999682851544381</v>
       </c>
       <c r="R7">
-        <v>0.9999992214208495</v>
+        <v>0.9999881052415286</v>
       </c>
       <c r="S7">
-        <v>0.9999992214208495</v>
+        <v>0.9999881052415286</v>
       </c>
       <c r="T7">
-        <v>0.9999997220915936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999957693688751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000791458505</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="D8">
-        <v>0.9999683310968902</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="E8">
-        <v>1.00000791458505</v>
+        <v>0.9999916168694244</v>
       </c>
       <c r="F8">
-        <v>1.00000791458505</v>
+        <v>1.000010158574918</v>
       </c>
       <c r="G8">
-        <v>1.000021109770445</v>
+        <v>0.9999847580500367</v>
       </c>
       <c r="H8">
-        <v>0.99998258195117</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="I8">
-        <v>1.00000791458505</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="J8">
-        <v>0.9999683310968902</v>
+        <v>0.9999847580500367</v>
       </c>
       <c r="K8">
-        <v>1.00000791458505</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="L8">
-        <v>1.00000791458505</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="M8">
-        <v>0.9999881228409699</v>
+        <v>0.9999942829440084</v>
       </c>
       <c r="N8">
-        <v>0.9999881228409699</v>
+        <v>0.9999942829440084</v>
       </c>
       <c r="O8">
-        <v>0.9999862758777033</v>
+        <v>0.9999933942524803</v>
       </c>
       <c r="P8">
-        <v>0.9999947200889965</v>
+        <v>0.9999974579086656</v>
       </c>
       <c r="Q8">
-        <v>0.9999947200889965</v>
+        <v>0.9999974579086656</v>
       </c>
       <c r="R8">
-        <v>0.9999980187130098</v>
+        <v>0.9999990453909942</v>
       </c>
       <c r="S8">
-        <v>0.9999980187130098</v>
+        <v>0.9999990453909942</v>
       </c>
       <c r="T8">
-        <v>0.9999992944289424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999996595013866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000011082358393</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="D9">
-        <v>0.9999556593850548</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="E9">
-        <v>1.000011082358393</v>
+        <v>0.9998149644294945</v>
       </c>
       <c r="F9">
-        <v>1.000011082358393</v>
+        <v>1.00022427837473</v>
       </c>
       <c r="G9">
-        <v>1.000029557499341</v>
+        <v>0.9996635718396775</v>
       </c>
       <c r="H9">
-        <v>0.9999756126952072</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="I9">
-        <v>1.000011082358393</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="J9">
-        <v>0.9999556593850548</v>
+        <v>0.9996635718396775</v>
       </c>
       <c r="K9">
-        <v>1.000011082358393</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="L9">
-        <v>1.000011082358393</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="M9">
-        <v>0.9999833708717241</v>
+        <v>0.9998738376359158</v>
       </c>
       <c r="N9">
-        <v>0.9999833708717241</v>
+        <v>0.9998738376359158</v>
       </c>
       <c r="O9">
-        <v>0.9999807848128851</v>
+        <v>0.9998542132337752</v>
       </c>
       <c r="P9">
-        <v>0.9999926080339471</v>
+        <v>0.9999439262346619</v>
       </c>
       <c r="Q9">
-        <v>0.9999926080339471</v>
+        <v>0.9999439262346619</v>
       </c>
       <c r="R9">
-        <v>0.9999972266150586</v>
+        <v>0.9999789705340349</v>
       </c>
       <c r="S9">
-        <v>0.9999972266150586</v>
+        <v>0.9999789705340349</v>
       </c>
       <c r="T9">
-        <v>0.9999990127757972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.999992520823394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000023898673316</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="D10">
-        <v>0.9999043930441174</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="E10">
-        <v>1.000023898673316</v>
+        <v>0.9965856083280663</v>
       </c>
       <c r="F10">
-        <v>1.000023898673316</v>
+        <v>1.00413865631792</v>
       </c>
       <c r="G10">
-        <v>1.0000637347365</v>
+        <v>0.993792019154383</v>
       </c>
       <c r="H10">
-        <v>0.9999474160759559</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="I10">
-        <v>1.000023898673316</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="J10">
-        <v>0.9999043930441174</v>
+        <v>0.993792019154383</v>
       </c>
       <c r="K10">
-        <v>1.000023898673316</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="L10">
-        <v>1.000023898673316</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="M10">
-        <v>0.9999641458587168</v>
+        <v>0.9976720062532042</v>
       </c>
       <c r="N10">
-        <v>0.9999641458587168</v>
+        <v>0.9976720062532042</v>
       </c>
       <c r="O10">
-        <v>0.9999585692644631</v>
+        <v>0.9973098736114916</v>
       </c>
       <c r="P10">
-        <v>0.9999840634635833</v>
+        <v>0.9989653352861446</v>
       </c>
       <c r="Q10">
-        <v>0.9999840634635833</v>
+        <v>0.9989653352861446</v>
       </c>
       <c r="R10">
-        <v>0.9999940222660165</v>
+        <v>0.9996119998026147</v>
       </c>
       <c r="S10">
-        <v>0.9999940222660165</v>
+        <v>0.9996119998026147</v>
       </c>
       <c r="T10">
-        <v>0.9999978733127538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9998620439760741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000039644101751</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="D11">
-        <v>0.9998414126576537</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="E11">
-        <v>1.000039644101751</v>
+        <v>0.9997029989874846</v>
       </c>
       <c r="F11">
-        <v>1.000039644101751</v>
+        <v>1.000359995311494</v>
       </c>
       <c r="G11">
-        <v>1.000105721258681</v>
+        <v>0.9994599974824998</v>
       </c>
       <c r="H11">
-        <v>0.9999127766152982</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="I11">
-        <v>1.000039644101751</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="J11">
-        <v>0.9998414126576537</v>
+        <v>0.9994599974824998</v>
       </c>
       <c r="K11">
-        <v>1.000039644101751</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="L11">
-        <v>1.000039644101751</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="M11">
-        <v>0.9999405283797025</v>
+        <v>0.9997974992454357</v>
       </c>
       <c r="N11">
-        <v>0.9999405283797025</v>
+        <v>0.9997974992454357</v>
       </c>
       <c r="O11">
-        <v>0.9999312777915677</v>
+        <v>0.9997659991594521</v>
       </c>
       <c r="P11">
-        <v>0.9999735669537188</v>
+        <v>0.9999099998330809</v>
       </c>
       <c r="Q11">
-        <v>0.9999735669537188</v>
+        <v>0.9999099998330809</v>
       </c>
       <c r="R11">
-        <v>0.9999900862407269</v>
+        <v>0.9999662501269035</v>
       </c>
       <c r="S11">
-        <v>0.9999900862407269</v>
+        <v>0.9999662501269035</v>
       </c>
       <c r="T11">
-        <v>0.9999964738061479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999879991344321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996486101319245</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="D12">
-        <v>1.00140555661252</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="E12">
-        <v>0.9996486101319245</v>
+        <v>0.9989753850000073</v>
       </c>
       <c r="F12">
-        <v>0.9996486101319245</v>
+        <v>1.001241956768423</v>
       </c>
       <c r="G12">
-        <v>0.9990629555213433</v>
+        <v>0.9981370617473599</v>
       </c>
       <c r="H12">
-        <v>1.000773063849194</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="I12">
-        <v>0.9996486101319245</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="J12">
-        <v>1.00140555661252</v>
+        <v>0.9981370617473599</v>
       </c>
       <c r="K12">
-        <v>0.9996486101319245</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="L12">
-        <v>0.9996486101319245</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="M12">
-        <v>1.000527083372222</v>
+        <v>0.9993013952421018</v>
       </c>
       <c r="N12">
-        <v>1.000527083372222</v>
+        <v>0.9993013952421018</v>
       </c>
       <c r="O12">
-        <v>1.000609076864546</v>
+        <v>0.9991927251614037</v>
       </c>
       <c r="P12">
-        <v>1.00023425895879</v>
+        <v>0.9996895064070158</v>
       </c>
       <c r="Q12">
-        <v>1.00023425895879</v>
+        <v>0.9996895064070158</v>
       </c>
       <c r="R12">
-        <v>1.000087846752073</v>
+        <v>0.9998835619894728</v>
       </c>
       <c r="S12">
-        <v>1.000087846752073</v>
+        <v>0.9998835619894728</v>
       </c>
       <c r="T12">
-        <v>1.000031234396472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999585982877202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999909272782855</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="D13">
-        <v>1.000362896813908</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="E13">
-        <v>0.999909272782855</v>
+        <v>1.000671521541906</v>
       </c>
       <c r="F13">
-        <v>0.999909272782855</v>
+        <v>0.9991860345649745</v>
       </c>
       <c r="G13">
-        <v>0.9997580687530723</v>
+        <v>1.001220946303634</v>
       </c>
       <c r="H13">
-        <v>1.000199595934479</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="I13">
-        <v>0.999909272782855</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="J13">
-        <v>1.000362896813908</v>
+        <v>1.001220946303634</v>
       </c>
       <c r="K13">
-        <v>0.999909272782855</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="L13">
-        <v>0.999909272782855</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="M13">
-        <v>1.000136084798382</v>
+        <v>1.000457853441724</v>
       </c>
       <c r="N13">
-        <v>1.000136084798382</v>
+        <v>1.000457853441724</v>
       </c>
       <c r="O13">
-        <v>1.000157255177081</v>
+        <v>1.000529076141785</v>
       </c>
       <c r="P13">
-        <v>1.000060480793206</v>
+        <v>1.000203489154421</v>
       </c>
       <c r="Q13">
-        <v>1.000060480793206</v>
+        <v>1.000203489154421</v>
       </c>
       <c r="R13">
-        <v>1.000022678790618</v>
+        <v>1.000076307010769</v>
       </c>
       <c r="S13">
-        <v>1.000022678790618</v>
+        <v>1.000076307010769</v>
       </c>
       <c r="T13">
-        <v>1.000008063308337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00002713069166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996486424011988</v>
+        <v>1.0026814</v>
       </c>
       <c r="D14">
-        <v>1.001405481566587</v>
+        <v>1.0026814</v>
       </c>
       <c r="E14">
-        <v>0.9996486424011988</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="F14">
-        <v>0.9996486424011988</v>
+        <v>1.0071504</v>
       </c>
       <c r="G14">
-        <v>0.9990630104080043</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="H14">
-        <v>1.000773004385404</v>
+        <v>1.0026814</v>
       </c>
       <c r="I14">
-        <v>0.9996486424011988</v>
+        <v>1.0026814</v>
       </c>
       <c r="J14">
-        <v>1.001405481566587</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="K14">
-        <v>0.9996486424011988</v>
+        <v>1.0026814</v>
       </c>
       <c r="L14">
-        <v>0.9996486424011988</v>
+        <v>1.0026814</v>
       </c>
       <c r="M14">
-        <v>1.000527061983893</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="N14">
-        <v>1.000527061983893</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="O14">
-        <v>1.000609042784397</v>
+        <v>0.9953522433333332</v>
       </c>
       <c r="P14">
-        <v>1.000234255456328</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q14">
-        <v>1.000234255456328</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R14">
-        <v>1.000087852192546</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S14">
-        <v>1.000087852192546</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T14">
-        <v>1.000031237260599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.999761655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999092733264643</v>
+        <v>1.0010055</v>
       </c>
       <c r="D15">
-        <v>1.000362865507851</v>
+        <v>1.0010055</v>
       </c>
       <c r="E15">
-        <v>0.9999092733264643</v>
+        <v>0.9977878100000001</v>
       </c>
       <c r="F15">
-        <v>0.9999092733264643</v>
+        <v>1.0026814</v>
       </c>
       <c r="G15">
-        <v>0.9997580843080667</v>
+        <v>0.99597784</v>
       </c>
       <c r="H15">
-        <v>1.000199579228749</v>
+        <v>1.0010055</v>
       </c>
       <c r="I15">
-        <v>0.9999092733264643</v>
+        <v>1.0010055</v>
       </c>
       <c r="J15">
-        <v>1.000362865507851</v>
+        <v>0.99597784</v>
       </c>
       <c r="K15">
-        <v>0.9999092733264643</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>0.9999092733264643</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>1.000136069417158</v>
+        <v>0.9984916699999999</v>
       </c>
       <c r="N15">
-        <v>1.000136069417158</v>
+        <v>0.9984916699999999</v>
       </c>
       <c r="O15">
-        <v>1.000157239354355</v>
+        <v>0.99825705</v>
       </c>
       <c r="P15">
-        <v>1.00006047072026</v>
+        <v>0.9993296133333333</v>
       </c>
       <c r="Q15">
-        <v>1.00006047072026</v>
+        <v>0.9993296133333333</v>
       </c>
       <c r="R15">
-        <v>1.000022671371811</v>
+        <v>0.9997485849999999</v>
       </c>
       <c r="S15">
-        <v>1.000022671371811</v>
+        <v>0.9997485849999999</v>
       </c>
       <c r="T15">
-        <v>1.000008058170677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999105916666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000177758946</v>
+        <v>1.0010055</v>
       </c>
       <c r="D16">
-        <v>0.9999992787978677</v>
+        <v>1.0010055</v>
       </c>
       <c r="E16">
-        <v>1.000000177758946</v>
+        <v>0.9977879200000001</v>
       </c>
       <c r="F16">
-        <v>1.000000177758946</v>
+        <v>1.0026813</v>
       </c>
       <c r="G16">
-        <v>1.000000477964708</v>
+        <v>0.99597803</v>
       </c>
       <c r="H16">
-        <v>0.9999996033273452</v>
+        <v>1.0010055</v>
       </c>
       <c r="I16">
-        <v>1.000000177758946</v>
+        <v>1.0010055</v>
       </c>
       <c r="J16">
-        <v>0.9999992787978677</v>
+        <v>0.99597803</v>
       </c>
       <c r="K16">
-        <v>1.000000177758946</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.000000177758946</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>0.9999997282784068</v>
+        <v>0.998491765</v>
       </c>
       <c r="N16">
-        <v>0.9999997282784068</v>
+        <v>0.998491765</v>
       </c>
       <c r="O16">
-        <v>0.9999996866280529</v>
+        <v>0.99825715</v>
       </c>
       <c r="P16">
-        <v>0.9999998781052533</v>
+        <v>0.9993296766666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999998781052533</v>
+        <v>0.9993296766666667</v>
       </c>
       <c r="R16">
-        <v>0.9999999530186765</v>
+        <v>0.9997486325</v>
       </c>
       <c r="S16">
-        <v>0.9999999530186765</v>
+        <v>0.9997486325</v>
       </c>
       <c r="T16">
-        <v>0.9999999822277933</v>
+        <v>0.9999106250000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00000380783798</v>
+        <v>0.99922492</v>
       </c>
       <c r="D17">
-        <v>0.9999847580500367</v>
+        <v>0.99922492</v>
       </c>
       <c r="E17">
-        <v>1.00000380783798</v>
+        <v>1.0017052</v>
       </c>
       <c r="F17">
-        <v>1.00000380783798</v>
+        <v>0.9979331099999998</v>
       </c>
       <c r="G17">
-        <v>1.000010158574918</v>
+        <v>1.0031003</v>
       </c>
       <c r="H17">
-        <v>0.9999916168694244</v>
+        <v>0.99922492</v>
       </c>
       <c r="I17">
-        <v>1.00000380783798</v>
+        <v>0.99922492</v>
       </c>
       <c r="J17">
-        <v>0.9999847580500367</v>
+        <v>1.0031003</v>
       </c>
       <c r="K17">
-        <v>1.00000380783798</v>
+        <v>0.99922492</v>
       </c>
       <c r="L17">
-        <v>1.00000380783798</v>
+        <v>0.99922492</v>
       </c>
       <c r="M17">
-        <v>0.9999942829440084</v>
+        <v>1.00116261</v>
       </c>
       <c r="N17">
-        <v>0.9999942829440084</v>
+        <v>1.00116261</v>
       </c>
       <c r="O17">
-        <v>0.9999933942524803</v>
+        <v>1.001343473333333</v>
       </c>
       <c r="P17">
-        <v>0.9999974579086656</v>
+        <v>1.000516713333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999974579086656</v>
+        <v>1.000516713333333</v>
       </c>
       <c r="R17">
-        <v>0.9999990453909942</v>
+        <v>1.000193765</v>
       </c>
       <c r="S17">
-        <v>0.9999990453909942</v>
+        <v>1.000193765</v>
       </c>
       <c r="T17">
-        <v>0.9999996595013866</v>
+        <v>1.000068895</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013411865979</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="D18">
-        <v>0.9999463408197057</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="E18">
-        <v>1.000013411865979</v>
+        <v>0.9977878464383563</v>
       </c>
       <c r="F18">
-        <v>1.000013411865979</v>
+        <v>1.002681375342467</v>
       </c>
       <c r="G18">
-        <v>1.000035770467426</v>
+        <v>0.995977903287671</v>
       </c>
       <c r="H18">
-        <v>0.9999704863680985</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="I18">
-        <v>1.000013411865979</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="J18">
-        <v>0.9999463408197057</v>
+        <v>0.995977903287671</v>
       </c>
       <c r="K18">
-        <v>1.000013411865979</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="L18">
-        <v>1.000013411865979</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="M18">
-        <v>0.9999798763428425</v>
+        <v>0.9984917016438359</v>
       </c>
       <c r="N18">
-        <v>0.9999798763428425</v>
+        <v>0.9984917016438359</v>
       </c>
       <c r="O18">
-        <v>0.9999767463512611</v>
+        <v>0.9982570832420095</v>
       </c>
       <c r="P18">
-        <v>0.9999910548505547</v>
+        <v>0.9993296344292242</v>
       </c>
       <c r="Q18">
-        <v>0.9999910548505547</v>
+        <v>0.9993296344292242</v>
       </c>
       <c r="R18">
-        <v>0.9999966441044108</v>
+        <v>0.9997486008219183</v>
       </c>
       <c r="S18">
-        <v>0.9999966441044108</v>
+        <v>0.9997486008219183</v>
       </c>
       <c r="T18">
-        <v>0.9999988055421944</v>
+        <v>0.9999106041780826</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031420375409</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="D19">
-        <v>0.9998742949576677</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="E19">
-        <v>1.000031420375409</v>
+        <v>0.999000637894737</v>
       </c>
       <c r="F19">
-        <v>1.000031420375409</v>
+        <v>1.001211345263158</v>
       </c>
       <c r="G19">
-        <v>1.000083803473926</v>
+        <v>0.9981829821052631</v>
       </c>
       <c r="H19">
-        <v>0.9999308637638347</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="I19">
-        <v>1.000031420375409</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="J19">
-        <v>0.9998742949576677</v>
+        <v>0.9981829821052631</v>
       </c>
       <c r="K19">
-        <v>1.000031420375409</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="L19">
-        <v>1.000031420375409</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="M19">
-        <v>0.9999528576665382</v>
+        <v>0.9993186194736843</v>
       </c>
       <c r="N19">
-        <v>0.9999528576665382</v>
+        <v>0.9993186194736843</v>
       </c>
       <c r="O19">
-        <v>0.999945526365637</v>
+        <v>0.9992126256140352</v>
       </c>
       <c r="P19">
-        <v>0.9999790452361618</v>
+        <v>0.999697165263158</v>
       </c>
       <c r="Q19">
-        <v>0.9999790452361618</v>
+        <v>0.999697165263158</v>
       </c>
       <c r="R19">
-        <v>0.9999921390209736</v>
+        <v>0.9998864381578948</v>
       </c>
       <c r="S19">
-        <v>0.9999921390209736</v>
+        <v>0.9998864381578948</v>
       </c>
       <c r="T19">
-        <v>0.9999972038869426</v>
+        <v>0.9999596226315789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="D20">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="E20">
+        <v>0.9990006689473683</v>
+      </c>
+      <c r="F20">
+        <v>1.001211297368421</v>
+      </c>
+      <c r="G20">
+        <v>0.9981830442105264</v>
+      </c>
+      <c r="H20">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="I20">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="J20">
+        <v>0.9981830442105264</v>
+      </c>
+      <c r="K20">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="L20">
+        <v>1.000454230526316</v>
+      </c>
+      <c r="M20">
+        <v>0.9993186373684211</v>
+      </c>
+      <c r="N20">
+        <v>0.9993186373684211</v>
+      </c>
+      <c r="O20">
+        <v>0.9992126478947368</v>
+      </c>
+      <c r="P20">
+        <v>0.9996971684210526</v>
+      </c>
+      <c r="Q20">
+        <v>0.9996971684210526</v>
+      </c>
+      <c r="R20">
+        <v>0.9998864339473684</v>
+      </c>
+      <c r="S20">
+        <v>0.9998864339473684</v>
+      </c>
+      <c r="T20">
+        <v>0.9999596170175439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="D21">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="E21">
+        <v>1.000773004385404</v>
+      </c>
+      <c r="F21">
+        <v>0.9990630104080043</v>
+      </c>
+      <c r="G21">
+        <v>1.001405481566587</v>
+      </c>
+      <c r="H21">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="I21">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="J21">
+        <v>1.001405481566587</v>
+      </c>
+      <c r="K21">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="L21">
+        <v>0.9996486424011988</v>
+      </c>
+      <c r="M21">
+        <v>1.000527061983893</v>
+      </c>
+      <c r="N21">
+        <v>1.000527061983893</v>
+      </c>
+      <c r="O21">
+        <v>1.000609042784397</v>
+      </c>
+      <c r="P21">
+        <v>1.000234255456328</v>
+      </c>
+      <c r="Q21">
+        <v>1.000234255456328</v>
+      </c>
+      <c r="R21">
+        <v>1.000087852192546</v>
+      </c>
+      <c r="S21">
+        <v>1.000087852192546</v>
+      </c>
+      <c r="T21">
+        <v>1.000031237260599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="D22">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="E22">
+        <v>1.000199579228749</v>
+      </c>
+      <c r="F22">
+        <v>0.9997580843080667</v>
+      </c>
+      <c r="G22">
+        <v>1.000362865507851</v>
+      </c>
+      <c r="H22">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="I22">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="J22">
+        <v>1.000362865507851</v>
+      </c>
+      <c r="K22">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="L22">
+        <v>0.9999092733264643</v>
+      </c>
+      <c r="M22">
+        <v>1.000136069417158</v>
+      </c>
+      <c r="N22">
+        <v>1.000136069417158</v>
+      </c>
+      <c r="O22">
+        <v>1.000157239354355</v>
+      </c>
+      <c r="P22">
+        <v>1.00006047072026</v>
+      </c>
+      <c r="Q22">
+        <v>1.00006047072026</v>
+      </c>
+      <c r="R22">
+        <v>1.000022671371811</v>
+      </c>
+      <c r="S22">
+        <v>1.000022671371811</v>
+      </c>
+      <c r="T22">
+        <v>1.000008058170677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="D23">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="E23">
+        <v>1.000773063849194</v>
+      </c>
+      <c r="F23">
+        <v>0.9990629555213433</v>
+      </c>
+      <c r="G23">
+        <v>1.00140555661252</v>
+      </c>
+      <c r="H23">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="I23">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="J23">
+        <v>1.00140555661252</v>
+      </c>
+      <c r="K23">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="L23">
+        <v>0.9996486101319245</v>
+      </c>
+      <c r="M23">
+        <v>1.000527083372222</v>
+      </c>
+      <c r="N23">
+        <v>1.000527083372222</v>
+      </c>
+      <c r="O23">
+        <v>1.000609076864546</v>
+      </c>
+      <c r="P23">
+        <v>1.00023425895879</v>
+      </c>
+      <c r="Q23">
+        <v>1.00023425895879</v>
+      </c>
+      <c r="R23">
+        <v>1.000087846752073</v>
+      </c>
+      <c r="S23">
+        <v>1.000087846752073</v>
+      </c>
+      <c r="T23">
+        <v>1.000031234396472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="D24">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="E24">
+        <v>1.000199595934479</v>
+      </c>
+      <c r="F24">
+        <v>0.9997580687530724</v>
+      </c>
+      <c r="G24">
+        <v>1.000362896813908</v>
+      </c>
+      <c r="H24">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="I24">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="J24">
+        <v>1.000362896813908</v>
+      </c>
+      <c r="K24">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="L24">
+        <v>0.999909272782855</v>
+      </c>
+      <c r="M24">
+        <v>1.000136084798382</v>
+      </c>
+      <c r="N24">
+        <v>1.000136084798382</v>
+      </c>
+      <c r="O24">
+        <v>1.000157255177081</v>
+      </c>
+      <c r="P24">
+        <v>1.000060480793206</v>
+      </c>
+      <c r="Q24">
+        <v>1.000060480793206</v>
+      </c>
+      <c r="R24">
+        <v>1.000022678790618</v>
+      </c>
+      <c r="S24">
+        <v>1.000022678790618</v>
+      </c>
+      <c r="T24">
+        <v>1.000008063308337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996485750628979</v>
+      </c>
+      <c r="D25">
+        <v>0.9996485750628979</v>
+      </c>
+      <c r="E25">
+        <v>1.000773121868479</v>
+      </c>
+      <c r="F25">
+        <v>0.9990628929717564</v>
+      </c>
+      <c r="G25">
+        <v>1.001405657820548</v>
+      </c>
+      <c r="H25">
+        <v>0.9996485750628979</v>
+      </c>
+      <c r="I25">
+        <v>0.9996485750628979</v>
+      </c>
+      <c r="J25">
+        <v>1.001405657820548</v>
+      </c>
+      <c r="K25">
+        <v>0.9996485750628979</v>
+      </c>
+      <c r="L25">
+        <v>0.9996485750628979</v>
+      </c>
+      <c r="M25">
+        <v>1.000527116441723</v>
+      </c>
+      <c r="N25">
+        <v>1.000527116441723</v>
+      </c>
+      <c r="O25">
+        <v>1.000609118250642</v>
+      </c>
+      <c r="P25">
+        <v>1.000234269315448</v>
+      </c>
+      <c r="Q25">
+        <v>1.000234269315448</v>
+      </c>
+      <c r="R25">
+        <v>1.00008784575231</v>
+      </c>
+      <c r="S25">
+        <v>1.00008784575231</v>
+      </c>
+      <c r="T25">
+        <v>1.000031232974913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9999092692827324</v>
+      </c>
+      <c r="D26">
+        <v>0.9999092692827324</v>
+      </c>
+      <c r="E26">
+        <v>1.000199599806251</v>
+      </c>
+      <c r="F26">
+        <v>0.9997580504696173</v>
+      </c>
+      <c r="G26">
+        <v>1.000362914356572</v>
+      </c>
+      <c r="H26">
+        <v>0.9999092692827324</v>
+      </c>
+      <c r="I26">
+        <v>0.9999092692827324</v>
+      </c>
+      <c r="J26">
+        <v>1.000362914356572</v>
+      </c>
+      <c r="K26">
+        <v>0.9999092692827324</v>
+      </c>
+      <c r="L26">
+        <v>0.9999092692827324</v>
+      </c>
+      <c r="M26">
+        <v>1.000136091819652</v>
+      </c>
+      <c r="N26">
+        <v>1.000136091819652</v>
+      </c>
+      <c r="O26">
+        <v>1.000157261148518</v>
+      </c>
+      <c r="P26">
+        <v>1.000060484307346</v>
+      </c>
+      <c r="Q26">
+        <v>1.000060484307346</v>
+      </c>
+      <c r="R26">
+        <v>1.000022680551192</v>
+      </c>
+      <c r="S26">
+        <v>1.000022680551192</v>
+      </c>
+      <c r="T26">
+        <v>1.000008062080106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="D27">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="E27">
+        <v>0.9996484062566799</v>
+      </c>
+      <c r="F27">
+        <v>1.000426168562897</v>
+      </c>
+      <c r="G27">
+        <v>0.9993607490376002</v>
+      </c>
+      <c r="H27">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="I27">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="J27">
+        <v>0.9993607490376002</v>
+      </c>
+      <c r="K27">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="L27">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="M27">
+        <v>0.9997602765693812</v>
+      </c>
+      <c r="N27">
+        <v>0.9997602765693812</v>
+      </c>
+      <c r="O27">
+        <v>0.9997229864651475</v>
+      </c>
+      <c r="P27">
+        <v>0.9998934524133082</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998934524133082</v>
+      </c>
+      <c r="R27">
+        <v>0.9999600403352716</v>
+      </c>
+      <c r="S27">
+        <v>0.9999600403352716</v>
+      </c>
+      <c r="T27">
+        <v>0.9999857893601106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="D28">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="E28">
+        <v>1.000060989642175</v>
+      </c>
+      <c r="F28">
+        <v>0.9999260672183516</v>
+      </c>
+      <c r="G28">
+        <v>1.00011089013703</v>
+      </c>
+      <c r="H28">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="I28">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="J28">
+        <v>1.00011089013703</v>
+      </c>
+      <c r="K28">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="L28">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="M28">
+        <v>1.0000415817313</v>
+      </c>
+      <c r="N28">
+        <v>1.0000415817313</v>
+      </c>
+      <c r="O28">
+        <v>1.000048051034925</v>
+      </c>
+      <c r="P28">
+        <v>1.00001847892939</v>
+      </c>
+      <c r="Q28">
+        <v>1.00001847892939</v>
+      </c>
+      <c r="R28">
+        <v>1.000006927528435</v>
+      </c>
+      <c r="S28">
+        <v>1.000006927528435</v>
+      </c>
+      <c r="T28">
+        <v>1.000002461162378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9994843808471475</v>
+      </c>
+      <c r="D29">
+        <v>0.9994843808471475</v>
+      </c>
+      <c r="E29">
+        <v>1.00113437872263</v>
+      </c>
+      <c r="F29">
+        <v>0.9986249933122145</v>
+      </c>
+      <c r="G29">
+        <v>1.00206250216597</v>
+      </c>
+      <c r="H29">
+        <v>0.9994843808471475</v>
+      </c>
+      <c r="I29">
+        <v>0.9994843808471475</v>
+      </c>
+      <c r="J29">
+        <v>1.00206250216597</v>
+      </c>
+      <c r="K29">
+        <v>0.9994843808471475</v>
+      </c>
+      <c r="L29">
+        <v>0.9994843808471475</v>
+      </c>
+      <c r="M29">
+        <v>1.000773441506559</v>
+      </c>
+      <c r="N29">
+        <v>1.000773441506559</v>
+      </c>
+      <c r="O29">
+        <v>1.000893753911916</v>
+      </c>
+      <c r="P29">
+        <v>1.000343754620088</v>
+      </c>
+      <c r="Q29">
+        <v>1.000343754620088</v>
+      </c>
+      <c r="R29">
+        <v>1.000128911176853</v>
+      </c>
+      <c r="S29">
+        <v>1.000128911176853</v>
+      </c>
+      <c r="T29">
+        <v>1.000045836123709</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000143207840749</v>
+        <v>1.000382342496194</v>
       </c>
       <c r="D4">
-        <v>1.000143207840749</v>
+        <v>1.000382342496194</v>
       </c>
       <c r="E4">
-        <v>0.9996849450571536</v>
+        <v>0.9991588362342274</v>
       </c>
       <c r="F4">
-        <v>1.000381878114374</v>
+        <v>1.001019590349944</v>
       </c>
       <c r="G4">
-        <v>0.9994271737293542</v>
+        <v>0.9984706108820116</v>
       </c>
       <c r="H4">
-        <v>1.000143207840749</v>
+        <v>1.000382342496194</v>
       </c>
       <c r="I4">
-        <v>1.000143207840749</v>
+        <v>1.000382342496194</v>
       </c>
       <c r="J4">
-        <v>0.9994271737293542</v>
+        <v>0.9984706108820116</v>
       </c>
       <c r="K4">
-        <v>1.000143207840749</v>
+        <v>1.000382342496194</v>
       </c>
       <c r="L4">
-        <v>1.000143207840749</v>
+        <v>1.000382342496194</v>
       </c>
       <c r="M4">
-        <v>0.9997851907850517</v>
+        <v>0.9994264766891026</v>
       </c>
       <c r="N4">
-        <v>0.9997851907850517</v>
+        <v>0.9994264766891026</v>
       </c>
       <c r="O4">
-        <v>0.999751775542419</v>
+        <v>0.9993372632041441</v>
       </c>
       <c r="P4">
-        <v>0.9999045298036174</v>
+        <v>0.9997450986247994</v>
       </c>
       <c r="Q4">
-        <v>0.9999045298036174</v>
+        <v>0.9997450986247994</v>
       </c>
       <c r="R4">
-        <v>0.9999641993129005</v>
+        <v>0.9999044095926479</v>
       </c>
       <c r="S4">
-        <v>0.9999641993129005</v>
+        <v>0.9999044095926479</v>
       </c>
       <c r="T4">
-        <v>0.9999872700705216</v>
+        <v>0.9999660108257938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000455849466858</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="D5">
-        <v>1.000455849466858</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="E5">
-        <v>0.9989971196613877</v>
+        <v>0.9994201688595039</v>
       </c>
       <c r="F5">
-        <v>1.001215609704613</v>
+        <v>1.00070281276442</v>
       </c>
       <c r="G5">
-        <v>0.9981765811887542</v>
+        <v>0.9989457718018661</v>
       </c>
       <c r="H5">
-        <v>1.000455849466858</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="I5">
-        <v>1.000455849466858</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="J5">
-        <v>0.9981765811887542</v>
+        <v>0.9989457718018661</v>
       </c>
       <c r="K5">
-        <v>1.000455849466858</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="L5">
-        <v>1.000455849466858</v>
+        <v>1.000263549417329</v>
       </c>
       <c r="M5">
-        <v>0.999316215327806</v>
+        <v>0.9996046606095974</v>
       </c>
       <c r="N5">
-        <v>0.999316215327806</v>
+        <v>0.9996046606095974</v>
       </c>
       <c r="O5">
-        <v>0.9992098501056667</v>
+        <v>0.9995431633595663</v>
       </c>
       <c r="P5">
-        <v>0.9996960933741565</v>
+        <v>0.9998242902121746</v>
       </c>
       <c r="Q5">
-        <v>0.9996960933741565</v>
+        <v>0.9998242902121746</v>
       </c>
       <c r="R5">
-        <v>0.9998860323973319</v>
+        <v>0.9999341050134631</v>
       </c>
       <c r="S5">
-        <v>0.9998860323973319</v>
+        <v>0.9999341050134631</v>
       </c>
       <c r="T5">
-        <v>0.9999594764925547</v>
+        <v>0.999976566946296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00152923362354</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="D6">
-        <v>1.00152923362354</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="E6">
-        <v>0.9966356809111224</v>
+        <v>0.9996849450571536</v>
       </c>
       <c r="F6">
-        <v>1.004077961598636</v>
+        <v>1.000381878114374</v>
       </c>
       <c r="G6">
-        <v>0.9938830608181222</v>
+        <v>0.9994271737293542</v>
       </c>
       <c r="H6">
-        <v>1.00152923362354</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="I6">
-        <v>1.00152923362354</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="J6">
-        <v>0.9938830608181222</v>
+        <v>0.9994271737293542</v>
       </c>
       <c r="K6">
-        <v>1.00152923362354</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="L6">
-        <v>1.00152923362354</v>
+        <v>1.000143207840749</v>
       </c>
       <c r="M6">
-        <v>0.9977061472208311</v>
+        <v>0.9997851907850517</v>
       </c>
       <c r="N6">
-        <v>0.9977061472208311</v>
+        <v>0.9997851907850517</v>
       </c>
       <c r="O6">
-        <v>0.9973493251175949</v>
+        <v>0.999751775542419</v>
       </c>
       <c r="P6">
-        <v>0.9989805093550673</v>
+        <v>0.9999045298036174</v>
       </c>
       <c r="Q6">
-        <v>0.9989805093550673</v>
+        <v>0.9999045298036174</v>
       </c>
       <c r="R6">
-        <v>0.9996176904221854</v>
+        <v>0.9999641993129005</v>
       </c>
       <c r="S6">
-        <v>0.9996176904221854</v>
+        <v>0.9999641993129005</v>
       </c>
       <c r="T6">
-        <v>0.9998640673664166</v>
+        <v>0.9999872700705216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.0000475655028</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="D7">
-        <v>1.0000475655028</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="E7">
-        <v>0.999895348266674</v>
+        <v>0.9989971196613877</v>
       </c>
       <c r="F7">
-        <v>1.000126846980462</v>
+        <v>1.001215609704613</v>
       </c>
       <c r="G7">
-        <v>0.9998097244577141</v>
+        <v>0.9981765811887542</v>
       </c>
       <c r="H7">
-        <v>1.0000475655028</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="I7">
-        <v>1.0000475655028</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="J7">
-        <v>0.9998097244577141</v>
+        <v>0.9981765811887542</v>
       </c>
       <c r="K7">
-        <v>1.0000475655028</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="L7">
-        <v>1.0000475655028</v>
+        <v>1.000455849466858</v>
       </c>
       <c r="M7">
-        <v>0.9999286449802571</v>
+        <v>0.999316215327806</v>
       </c>
       <c r="N7">
-        <v>0.9999286449802571</v>
+        <v>0.999316215327806</v>
       </c>
       <c r="O7">
-        <v>0.9999175460757295</v>
+        <v>0.9992098501056667</v>
       </c>
       <c r="P7">
-        <v>0.9999682851544381</v>
+        <v>0.9996960933741565</v>
       </c>
       <c r="Q7">
-        <v>0.9999682851544381</v>
+        <v>0.9996960933741565</v>
       </c>
       <c r="R7">
-        <v>0.9999881052415286</v>
+        <v>0.9998860323973319</v>
       </c>
       <c r="S7">
-        <v>0.9999881052415286</v>
+        <v>0.9998860323973319</v>
       </c>
       <c r="T7">
-        <v>0.9999957693688751</v>
+        <v>0.9999594764925547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00000380783798</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="D8">
-        <v>1.00000380783798</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="E8">
-        <v>0.9999916168694244</v>
+        <v>0.9966356809111224</v>
       </c>
       <c r="F8">
-        <v>1.000010158574918</v>
+        <v>1.004077961598636</v>
       </c>
       <c r="G8">
-        <v>0.9999847580500367</v>
+        <v>0.9938830608181222</v>
       </c>
       <c r="H8">
-        <v>1.00000380783798</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="I8">
-        <v>1.00000380783798</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="J8">
-        <v>0.9999847580500367</v>
+        <v>0.9938830608181222</v>
       </c>
       <c r="K8">
-        <v>1.00000380783798</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="L8">
-        <v>1.00000380783798</v>
+        <v>1.00152923362354</v>
       </c>
       <c r="M8">
-        <v>0.9999942829440084</v>
+        <v>0.9977061472208311</v>
       </c>
       <c r="N8">
-        <v>0.9999942829440084</v>
+        <v>0.9977061472208311</v>
       </c>
       <c r="O8">
-        <v>0.9999933942524803</v>
+        <v>0.9973493251175949</v>
       </c>
       <c r="P8">
-        <v>0.9999974579086656</v>
+        <v>0.9989805093550673</v>
       </c>
       <c r="Q8">
-        <v>0.9999974579086656</v>
+        <v>0.9989805093550673</v>
       </c>
       <c r="R8">
-        <v>0.9999990453909942</v>
+        <v>0.9996176904221854</v>
       </c>
       <c r="S8">
-        <v>0.9999990453909942</v>
+        <v>0.9996176904221854</v>
       </c>
       <c r="T8">
-        <v>0.9999996595013866</v>
+        <v>0.9998640673664166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000084103432154</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="D9">
-        <v>1.000084103432154</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="E9">
-        <v>0.9998149644294945</v>
+        <v>0.999895348266674</v>
       </c>
       <c r="F9">
-        <v>1.00022427837473</v>
+        <v>1.000126846980462</v>
       </c>
       <c r="G9">
-        <v>0.9996635718396775</v>
+        <v>0.9998097244577141</v>
       </c>
       <c r="H9">
-        <v>1.000084103432154</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="I9">
-        <v>1.000084103432154</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="J9">
-        <v>0.9996635718396775</v>
+        <v>0.9998097244577141</v>
       </c>
       <c r="K9">
-        <v>1.000084103432154</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="L9">
-        <v>1.000084103432154</v>
+        <v>1.0000475655028</v>
       </c>
       <c r="M9">
-        <v>0.9998738376359158</v>
+        <v>0.9999286449802571</v>
       </c>
       <c r="N9">
-        <v>0.9998738376359158</v>
+        <v>0.9999286449802571</v>
       </c>
       <c r="O9">
-        <v>0.9998542132337752</v>
+        <v>0.9999175460757295</v>
       </c>
       <c r="P9">
-        <v>0.9999439262346619</v>
+        <v>0.9999682851544381</v>
       </c>
       <c r="Q9">
-        <v>0.9999439262346619</v>
+        <v>0.9999682851544381</v>
       </c>
       <c r="R9">
-        <v>0.9999789705340349</v>
+        <v>0.9999881052415286</v>
       </c>
       <c r="S9">
-        <v>0.9999789705340349</v>
+        <v>0.9999881052415286</v>
       </c>
       <c r="T9">
-        <v>0.999992520823394</v>
+        <v>0.9999957693688751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001551993352025</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="D10">
-        <v>1.001551993352025</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="E10">
-        <v>0.9965856083280663</v>
+        <v>0.9999916168694244</v>
       </c>
       <c r="F10">
-        <v>1.00413865631792</v>
+        <v>1.000010158574918</v>
       </c>
       <c r="G10">
-        <v>0.993792019154383</v>
+        <v>0.9999847580500367</v>
       </c>
       <c r="H10">
-        <v>1.001551993352025</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="I10">
-        <v>1.001551993352025</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="J10">
-        <v>0.993792019154383</v>
+        <v>0.9999847580500367</v>
       </c>
       <c r="K10">
-        <v>1.001551993352025</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="L10">
-        <v>1.001551993352025</v>
+        <v>1.00000380783798</v>
       </c>
       <c r="M10">
-        <v>0.9976720062532042</v>
+        <v>0.9999942829440084</v>
       </c>
       <c r="N10">
-        <v>0.9976720062532042</v>
+        <v>0.9999942829440084</v>
       </c>
       <c r="O10">
-        <v>0.9973098736114916</v>
+        <v>0.9999933942524803</v>
       </c>
       <c r="P10">
-        <v>0.9989653352861446</v>
+        <v>0.9999974579086656</v>
       </c>
       <c r="Q10">
-        <v>0.9989653352861446</v>
+        <v>0.9999974579086656</v>
       </c>
       <c r="R10">
-        <v>0.9996119998026147</v>
+        <v>0.9999990453909942</v>
       </c>
       <c r="S10">
-        <v>0.9996119998026147</v>
+        <v>0.9999990453909942</v>
       </c>
       <c r="T10">
-        <v>0.9998620439760741</v>
+        <v>0.9999996595013866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000135001008372</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="D11">
-        <v>1.000135001008372</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="E11">
-        <v>0.9997029989874846</v>
+        <v>0.9998149644294945</v>
       </c>
       <c r="F11">
-        <v>1.000359995311494</v>
+        <v>1.00022427837473</v>
       </c>
       <c r="G11">
-        <v>0.9994599974824998</v>
+        <v>0.9996635718396775</v>
       </c>
       <c r="H11">
-        <v>1.000135001008372</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="I11">
-        <v>1.000135001008372</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="J11">
-        <v>0.9994599974824998</v>
+        <v>0.9996635718396775</v>
       </c>
       <c r="K11">
-        <v>1.000135001008372</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="L11">
-        <v>1.000135001008372</v>
+        <v>1.000084103432154</v>
       </c>
       <c r="M11">
-        <v>0.9997974992454357</v>
+        <v>0.9998738376359158</v>
       </c>
       <c r="N11">
-        <v>0.9997974992454357</v>
+        <v>0.9998738376359158</v>
       </c>
       <c r="O11">
-        <v>0.9997659991594521</v>
+        <v>0.9998542132337752</v>
       </c>
       <c r="P11">
-        <v>0.9999099998330809</v>
+        <v>0.9999439262346619</v>
       </c>
       <c r="Q11">
-        <v>0.9999099998330809</v>
+        <v>0.9999439262346619</v>
       </c>
       <c r="R11">
-        <v>0.9999662501269035</v>
+        <v>0.9999789705340349</v>
       </c>
       <c r="S11">
-        <v>0.9999662501269035</v>
+        <v>0.9999789705340349</v>
       </c>
       <c r="T11">
-        <v>0.9999879991344321</v>
+        <v>0.999992520823394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000465728736844</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="D12">
-        <v>1.000465728736844</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="E12">
-        <v>0.9989753850000073</v>
+        <v>0.9965856083280663</v>
       </c>
       <c r="F12">
-        <v>1.001241956768423</v>
+        <v>1.00413865631792</v>
       </c>
       <c r="G12">
-        <v>0.9981370617473599</v>
+        <v>0.993792019154383</v>
       </c>
       <c r="H12">
-        <v>1.000465728736844</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="I12">
-        <v>1.000465728736844</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="J12">
-        <v>0.9981370617473599</v>
+        <v>0.993792019154383</v>
       </c>
       <c r="K12">
-        <v>1.000465728736844</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="L12">
-        <v>1.000465728736844</v>
+        <v>1.001551993352025</v>
       </c>
       <c r="M12">
-        <v>0.9993013952421018</v>
+        <v>0.9976720062532042</v>
       </c>
       <c r="N12">
-        <v>0.9993013952421018</v>
+        <v>0.9976720062532042</v>
       </c>
       <c r="O12">
-        <v>0.9991927251614037</v>
+        <v>0.9973098736114916</v>
       </c>
       <c r="P12">
-        <v>0.9996895064070158</v>
+        <v>0.9989653352861446</v>
       </c>
       <c r="Q12">
-        <v>0.9996895064070158</v>
+        <v>0.9989653352861446</v>
       </c>
       <c r="R12">
-        <v>0.9998835619894728</v>
+        <v>0.9996119998026147</v>
       </c>
       <c r="S12">
-        <v>0.9998835619894728</v>
+        <v>0.9996119998026147</v>
       </c>
       <c r="T12">
-        <v>0.9999585982877202</v>
+        <v>0.9998620439760741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996947605798142</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="D13">
-        <v>0.9996947605798142</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="E13">
-        <v>1.000671521541906</v>
+        <v>0.9997029989874846</v>
       </c>
       <c r="F13">
-        <v>0.9991860345649745</v>
+        <v>1.000359995311494</v>
       </c>
       <c r="G13">
-        <v>1.001220946303634</v>
+        <v>0.9994599974824998</v>
       </c>
       <c r="H13">
-        <v>0.9996947605798142</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="I13">
-        <v>0.9996947605798142</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="J13">
-        <v>1.001220946303634</v>
+        <v>0.9994599974824998</v>
       </c>
       <c r="K13">
-        <v>0.9996947605798142</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="L13">
-        <v>0.9996947605798142</v>
+        <v>1.000135001008372</v>
       </c>
       <c r="M13">
-        <v>1.000457853441724</v>
+        <v>0.9997974992454357</v>
       </c>
       <c r="N13">
-        <v>1.000457853441724</v>
+        <v>0.9997974992454357</v>
       </c>
       <c r="O13">
-        <v>1.000529076141785</v>
+        <v>0.9997659991594521</v>
       </c>
       <c r="P13">
-        <v>1.000203489154421</v>
+        <v>0.9999099998330809</v>
       </c>
       <c r="Q13">
-        <v>1.000203489154421</v>
+        <v>0.9999099998330809</v>
       </c>
       <c r="R13">
-        <v>1.000076307010769</v>
+        <v>0.9999662501269035</v>
       </c>
       <c r="S13">
-        <v>1.000076307010769</v>
+        <v>0.9999662501269035</v>
       </c>
       <c r="T13">
-        <v>1.00002713069166</v>
+        <v>0.9999879991344321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0026814</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="D14">
-        <v>1.0026814</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="E14">
-        <v>0.9941009200000001</v>
+        <v>0.9989753850000073</v>
       </c>
       <c r="F14">
-        <v>1.0071504</v>
+        <v>1.001241956768423</v>
       </c>
       <c r="G14">
-        <v>0.9892744099999995</v>
+        <v>0.9981370617473599</v>
       </c>
       <c r="H14">
-        <v>1.0026814</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="I14">
-        <v>1.0026814</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="J14">
-        <v>0.9892744099999995</v>
+        <v>0.9981370617473599</v>
       </c>
       <c r="K14">
-        <v>1.0026814</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="L14">
-        <v>1.0026814</v>
+        <v>1.000465728736844</v>
       </c>
       <c r="M14">
-        <v>0.9959779049999997</v>
+        <v>0.9993013952421018</v>
       </c>
       <c r="N14">
-        <v>0.9959779049999997</v>
+        <v>0.9993013952421018</v>
       </c>
       <c r="O14">
-        <v>0.9953522433333332</v>
+        <v>0.9991927251614037</v>
       </c>
       <c r="P14">
-        <v>0.9982124033333332</v>
+        <v>0.9996895064070158</v>
       </c>
       <c r="Q14">
-        <v>0.9982124033333332</v>
+        <v>0.9996895064070158</v>
       </c>
       <c r="R14">
-        <v>0.9993296524999999</v>
+        <v>0.9998835619894728</v>
       </c>
       <c r="S14">
-        <v>0.9993296524999999</v>
+        <v>0.9998835619894728</v>
       </c>
       <c r="T14">
-        <v>0.999761655</v>
+        <v>0.9999585982877202</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0010055</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="D15">
-        <v>1.0010055</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="E15">
-        <v>0.9977878100000001</v>
+        <v>1.000671521541906</v>
       </c>
       <c r="F15">
-        <v>1.0026814</v>
+        <v>0.9991860345649745</v>
       </c>
       <c r="G15">
-        <v>0.99597784</v>
+        <v>1.001220946303634</v>
       </c>
       <c r="H15">
-        <v>1.0010055</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="I15">
-        <v>1.0010055</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="J15">
-        <v>0.99597784</v>
+        <v>1.001220946303634</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>0.9996947605798142</v>
       </c>
       <c r="M15">
-        <v>0.9984916699999999</v>
+        <v>1.000457853441724</v>
       </c>
       <c r="N15">
-        <v>0.9984916699999999</v>
+        <v>1.000457853441724</v>
       </c>
       <c r="O15">
-        <v>0.99825705</v>
+        <v>1.000529076141785</v>
       </c>
       <c r="P15">
-        <v>0.9993296133333333</v>
+        <v>1.000203489154421</v>
       </c>
       <c r="Q15">
-        <v>0.9993296133333333</v>
+        <v>1.000203489154421</v>
       </c>
       <c r="R15">
-        <v>0.9997485849999999</v>
+        <v>1.000076307010769</v>
       </c>
       <c r="S15">
-        <v>0.9997485849999999</v>
+        <v>1.000076307010769</v>
       </c>
       <c r="T15">
-        <v>0.9999105916666666</v>
+        <v>1.00002713069166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="D16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="E16">
-        <v>0.9977879200000001</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="F16">
-        <v>1.0026813</v>
+        <v>1.0071504</v>
       </c>
       <c r="G16">
-        <v>0.99597803</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="H16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="I16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="J16">
-        <v>0.99597803</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="K16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="L16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="M16">
-        <v>0.998491765</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="N16">
-        <v>0.998491765</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="O16">
-        <v>0.99825715</v>
+        <v>0.9953522433333332</v>
       </c>
       <c r="P16">
-        <v>0.9993296766666667</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q16">
-        <v>0.9993296766666667</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R16">
-        <v>0.9997486325</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S16">
-        <v>0.9997486325</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T16">
-        <v>0.9999106250000001</v>
+        <v>0.999761655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99922492</v>
+        <v>1.0010055</v>
       </c>
       <c r="D17">
-        <v>0.99922492</v>
+        <v>1.0010055</v>
       </c>
       <c r="E17">
-        <v>1.0017052</v>
+        <v>0.9977878100000001</v>
       </c>
       <c r="F17">
-        <v>0.9979331099999998</v>
+        <v>1.0026814</v>
       </c>
       <c r="G17">
-        <v>1.0031003</v>
+        <v>0.99597784</v>
       </c>
       <c r="H17">
-        <v>0.99922492</v>
+        <v>1.0010055</v>
       </c>
       <c r="I17">
-        <v>0.99922492</v>
+        <v>1.0010055</v>
       </c>
       <c r="J17">
-        <v>1.0031003</v>
+        <v>0.99597784</v>
       </c>
       <c r="K17">
-        <v>0.99922492</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>0.99922492</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>1.00116261</v>
+        <v>0.9984916699999999</v>
       </c>
       <c r="N17">
-        <v>1.00116261</v>
+        <v>0.9984916699999999</v>
       </c>
       <c r="O17">
-        <v>1.001343473333333</v>
+        <v>0.99825705</v>
       </c>
       <c r="P17">
-        <v>1.000516713333333</v>
+        <v>0.9993296133333333</v>
       </c>
       <c r="Q17">
-        <v>1.000516713333333</v>
+        <v>0.9993296133333333</v>
       </c>
       <c r="R17">
-        <v>1.000193765</v>
+        <v>0.9997485849999999</v>
       </c>
       <c r="S17">
-        <v>1.000193765</v>
+        <v>0.9997485849999999</v>
       </c>
       <c r="T17">
-        <v>1.000068895</v>
+        <v>0.9999105916666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001005500000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="D18">
-        <v>1.001005500000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="E18">
-        <v>0.9977878464383563</v>
+        <v>0.9977879200000001</v>
       </c>
       <c r="F18">
-        <v>1.002681375342467</v>
+        <v>1.0026813</v>
       </c>
       <c r="G18">
-        <v>0.995977903287671</v>
+        <v>0.99597803</v>
       </c>
       <c r="H18">
-        <v>1.001005500000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="I18">
-        <v>1.001005500000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="J18">
-        <v>0.995977903287671</v>
+        <v>0.99597803</v>
       </c>
       <c r="K18">
-        <v>1.001005500000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>1.001005500000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="M18">
-        <v>0.9984917016438359</v>
+        <v>0.998491765</v>
       </c>
       <c r="N18">
-        <v>0.9984917016438359</v>
+        <v>0.998491765</v>
       </c>
       <c r="O18">
-        <v>0.9982570832420095</v>
+        <v>0.99825715</v>
       </c>
       <c r="P18">
-        <v>0.9993296344292242</v>
+        <v>0.9993296766666667</v>
       </c>
       <c r="Q18">
-        <v>0.9993296344292242</v>
+        <v>0.9993296766666667</v>
       </c>
       <c r="R18">
-        <v>0.9997486008219183</v>
+        <v>0.9997486325</v>
       </c>
       <c r="S18">
-        <v>0.9997486008219183</v>
+        <v>0.9997486325</v>
       </c>
       <c r="T18">
-        <v>0.9999106041780826</v>
+        <v>0.9999106250000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000454256842105</v>
+        <v>0.99922492</v>
       </c>
       <c r="D19">
-        <v>1.000454256842105</v>
+        <v>0.99922492</v>
       </c>
       <c r="E19">
-        <v>0.999000637894737</v>
+        <v>1.0017052</v>
       </c>
       <c r="F19">
-        <v>1.001211345263158</v>
+        <v>0.9979331099999998</v>
       </c>
       <c r="G19">
-        <v>0.9981829821052631</v>
+        <v>1.0031003</v>
       </c>
       <c r="H19">
-        <v>1.000454256842105</v>
+        <v>0.99922492</v>
       </c>
       <c r="I19">
-        <v>1.000454256842105</v>
+        <v>0.99922492</v>
       </c>
       <c r="J19">
-        <v>0.9981829821052631</v>
+        <v>1.0031003</v>
       </c>
       <c r="K19">
-        <v>1.000454256842105</v>
+        <v>0.99922492</v>
       </c>
       <c r="L19">
-        <v>1.000454256842105</v>
+        <v>0.99922492</v>
       </c>
       <c r="M19">
-        <v>0.9993186194736843</v>
+        <v>1.00116261</v>
       </c>
       <c r="N19">
-        <v>0.9993186194736843</v>
+        <v>1.00116261</v>
       </c>
       <c r="O19">
-        <v>0.9992126256140352</v>
+        <v>1.001343473333333</v>
       </c>
       <c r="P19">
-        <v>0.999697165263158</v>
+        <v>1.000516713333333</v>
       </c>
       <c r="Q19">
-        <v>0.999697165263158</v>
+        <v>1.000516713333333</v>
       </c>
       <c r="R19">
-        <v>0.9998864381578948</v>
+        <v>1.000193765</v>
       </c>
       <c r="S19">
-        <v>0.9998864381578948</v>
+        <v>1.000193765</v>
       </c>
       <c r="T19">
-        <v>0.9999596226315789</v>
+        <v>1.000068895</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000454230526316</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="D20">
-        <v>1.000454230526316</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="E20">
-        <v>0.9990006689473683</v>
+        <v>0.9977878464383563</v>
       </c>
       <c r="F20">
-        <v>1.001211297368421</v>
+        <v>1.002681375342467</v>
       </c>
       <c r="G20">
-        <v>0.9981830442105264</v>
+        <v>0.995977903287671</v>
       </c>
       <c r="H20">
-        <v>1.000454230526316</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="I20">
-        <v>1.000454230526316</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="J20">
-        <v>0.9981830442105264</v>
+        <v>0.995977903287671</v>
       </c>
       <c r="K20">
-        <v>1.000454230526316</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="L20">
-        <v>1.000454230526316</v>
+        <v>1.001005500000001</v>
       </c>
       <c r="M20">
-        <v>0.9993186373684211</v>
+        <v>0.9984917016438359</v>
       </c>
       <c r="N20">
-        <v>0.9993186373684211</v>
+        <v>0.9984917016438359</v>
       </c>
       <c r="O20">
-        <v>0.9992126478947368</v>
+        <v>0.9982570832420095</v>
       </c>
       <c r="P20">
-        <v>0.9996971684210526</v>
+        <v>0.9993296344292242</v>
       </c>
       <c r="Q20">
-        <v>0.9996971684210526</v>
+        <v>0.9993296344292242</v>
       </c>
       <c r="R20">
-        <v>0.9998864339473684</v>
+        <v>0.9997486008219183</v>
       </c>
       <c r="S20">
-        <v>0.9998864339473684</v>
+        <v>0.9997486008219183</v>
       </c>
       <c r="T20">
-        <v>0.9999596170175439</v>
+        <v>0.9999106041780826</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9996486424011988</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="D21">
-        <v>0.9996486424011988</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="E21">
-        <v>1.000773004385404</v>
+        <v>0.999000637894737</v>
       </c>
       <c r="F21">
-        <v>0.9990630104080043</v>
+        <v>1.001211345263158</v>
       </c>
       <c r="G21">
-        <v>1.001405481566587</v>
+        <v>0.9981829821052631</v>
       </c>
       <c r="H21">
-        <v>0.9996486424011988</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="I21">
-        <v>0.9996486424011988</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="J21">
-        <v>1.001405481566587</v>
+        <v>0.9981829821052631</v>
       </c>
       <c r="K21">
-        <v>0.9996486424011988</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="L21">
-        <v>0.9996486424011988</v>
+        <v>1.000454256842105</v>
       </c>
       <c r="M21">
-        <v>1.000527061983893</v>
+        <v>0.9993186194736843</v>
       </c>
       <c r="N21">
-        <v>1.000527061983893</v>
+        <v>0.9993186194736843</v>
       </c>
       <c r="O21">
-        <v>1.000609042784397</v>
+        <v>0.9992126256140352</v>
       </c>
       <c r="P21">
-        <v>1.000234255456328</v>
+        <v>0.999697165263158</v>
       </c>
       <c r="Q21">
-        <v>1.000234255456328</v>
+        <v>0.999697165263158</v>
       </c>
       <c r="R21">
-        <v>1.000087852192546</v>
+        <v>0.9998864381578948</v>
       </c>
       <c r="S21">
-        <v>1.000087852192546</v>
+        <v>0.9998864381578948</v>
       </c>
       <c r="T21">
-        <v>1.000031237260599</v>
+        <v>0.9999596226315789</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999092733264643</v>
+        <v>1.000454230526316</v>
       </c>
       <c r="D22">
-        <v>0.9999092733264643</v>
+        <v>1.000454230526316</v>
       </c>
       <c r="E22">
-        <v>1.000199579228749</v>
+        <v>0.9990006689473683</v>
       </c>
       <c r="F22">
-        <v>0.9997580843080667</v>
+        <v>1.001211297368421</v>
       </c>
       <c r="G22">
-        <v>1.000362865507851</v>
+        <v>0.9981830442105264</v>
       </c>
       <c r="H22">
-        <v>0.9999092733264643</v>
+        <v>1.000454230526316</v>
       </c>
       <c r="I22">
-        <v>0.9999092733264643</v>
+        <v>1.000454230526316</v>
       </c>
       <c r="J22">
-        <v>1.000362865507851</v>
+        <v>0.9981830442105264</v>
       </c>
       <c r="K22">
-        <v>0.9999092733264643</v>
+        <v>1.000454230526316</v>
       </c>
       <c r="L22">
-        <v>0.9999092733264643</v>
+        <v>1.000454230526316</v>
       </c>
       <c r="M22">
-        <v>1.000136069417158</v>
+        <v>0.9993186373684211</v>
       </c>
       <c r="N22">
-        <v>1.000136069417158</v>
+        <v>0.9993186373684211</v>
       </c>
       <c r="O22">
-        <v>1.000157239354355</v>
+        <v>0.9992126478947368</v>
       </c>
       <c r="P22">
-        <v>1.00006047072026</v>
+        <v>0.9996971684210526</v>
       </c>
       <c r="Q22">
-        <v>1.00006047072026</v>
+        <v>0.9996971684210526</v>
       </c>
       <c r="R22">
-        <v>1.000022671371811</v>
+        <v>0.9998864339473684</v>
       </c>
       <c r="S22">
-        <v>1.000022671371811</v>
+        <v>0.9998864339473684</v>
       </c>
       <c r="T22">
-        <v>1.000008058170677</v>
+        <v>0.9999596170175439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9996486101319245</v>
+        <v>0.9996486424011988</v>
       </c>
       <c r="D23">
-        <v>0.9996486101319245</v>
+        <v>0.9996486424011988</v>
       </c>
       <c r="E23">
-        <v>1.000773063849194</v>
+        <v>1.000773004385404</v>
       </c>
       <c r="F23">
-        <v>0.9990629555213433</v>
+        <v>0.9990630104080043</v>
       </c>
       <c r="G23">
-        <v>1.00140555661252</v>
+        <v>1.001405481566587</v>
       </c>
       <c r="H23">
-        <v>0.9996486101319245</v>
+        <v>0.9996486424011988</v>
       </c>
       <c r="I23">
-        <v>0.9996486101319245</v>
+        <v>0.9996486424011988</v>
       </c>
       <c r="J23">
-        <v>1.00140555661252</v>
+        <v>1.001405481566587</v>
       </c>
       <c r="K23">
-        <v>0.9996486101319245</v>
+        <v>0.9996486424011988</v>
       </c>
       <c r="L23">
-        <v>0.9996486101319245</v>
+        <v>0.9996486424011988</v>
       </c>
       <c r="M23">
-        <v>1.000527083372222</v>
+        <v>1.000527061983893</v>
       </c>
       <c r="N23">
-        <v>1.000527083372222</v>
+        <v>1.000527061983893</v>
       </c>
       <c r="O23">
-        <v>1.000609076864546</v>
+        <v>1.000609042784397</v>
       </c>
       <c r="P23">
-        <v>1.00023425895879</v>
+        <v>1.000234255456328</v>
       </c>
       <c r="Q23">
-        <v>1.00023425895879</v>
+        <v>1.000234255456328</v>
       </c>
       <c r="R23">
-        <v>1.000087846752073</v>
+        <v>1.000087852192546</v>
       </c>
       <c r="S23">
-        <v>1.000087846752073</v>
+        <v>1.000087852192546</v>
       </c>
       <c r="T23">
-        <v>1.000031234396472</v>
+        <v>1.000031237260599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.999909272782855</v>
+        <v>0.9999092733264643</v>
       </c>
       <c r="D24">
-        <v>0.999909272782855</v>
+        <v>0.9999092733264643</v>
       </c>
       <c r="E24">
-        <v>1.000199595934479</v>
+        <v>1.000199579228749</v>
       </c>
       <c r="F24">
-        <v>0.9997580687530724</v>
+        <v>0.9997580843080667</v>
       </c>
       <c r="G24">
-        <v>1.000362896813908</v>
+        <v>1.000362865507851</v>
       </c>
       <c r="H24">
-        <v>0.999909272782855</v>
+        <v>0.9999092733264643</v>
       </c>
       <c r="I24">
-        <v>0.999909272782855</v>
+        <v>0.9999092733264643</v>
       </c>
       <c r="J24">
-        <v>1.000362896813908</v>
+        <v>1.000362865507851</v>
       </c>
       <c r="K24">
-        <v>0.999909272782855</v>
+        <v>0.9999092733264643</v>
       </c>
       <c r="L24">
-        <v>0.999909272782855</v>
+        <v>0.9999092733264643</v>
       </c>
       <c r="M24">
-        <v>1.000136084798382</v>
+        <v>1.000136069417158</v>
       </c>
       <c r="N24">
-        <v>1.000136084798382</v>
+        <v>1.000136069417158</v>
       </c>
       <c r="O24">
-        <v>1.000157255177081</v>
+        <v>1.000157239354355</v>
       </c>
       <c r="P24">
-        <v>1.000060480793206</v>
+        <v>1.00006047072026</v>
       </c>
       <c r="Q24">
-        <v>1.000060480793206</v>
+        <v>1.00006047072026</v>
       </c>
       <c r="R24">
-        <v>1.000022678790618</v>
+        <v>1.000022671371811</v>
       </c>
       <c r="S24">
-        <v>1.000022678790618</v>
+        <v>1.000022671371811</v>
       </c>
       <c r="T24">
-        <v>1.000008063308337</v>
+        <v>1.000008058170677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9996485750628979</v>
+        <v>0.9996486101319245</v>
       </c>
       <c r="D25">
-        <v>0.9996485750628979</v>
+        <v>0.9996486101319245</v>
       </c>
       <c r="E25">
-        <v>1.000773121868479</v>
+        <v>1.000773063849194</v>
       </c>
       <c r="F25">
-        <v>0.9990628929717564</v>
+        <v>0.9990629555213433</v>
       </c>
       <c r="G25">
-        <v>1.001405657820548</v>
+        <v>1.00140555661252</v>
       </c>
       <c r="H25">
-        <v>0.9996485750628979</v>
+        <v>0.9996486101319245</v>
       </c>
       <c r="I25">
-        <v>0.9996485750628979</v>
+        <v>0.9996486101319245</v>
       </c>
       <c r="J25">
-        <v>1.001405657820548</v>
+        <v>1.00140555661252</v>
       </c>
       <c r="K25">
-        <v>0.9996485750628979</v>
+        <v>0.9996486101319245</v>
       </c>
       <c r="L25">
-        <v>0.9996485750628979</v>
+        <v>0.9996486101319245</v>
       </c>
       <c r="M25">
-        <v>1.000527116441723</v>
+        <v>1.000527083372222</v>
       </c>
       <c r="N25">
-        <v>1.000527116441723</v>
+        <v>1.000527083372222</v>
       </c>
       <c r="O25">
-        <v>1.000609118250642</v>
+        <v>1.000609076864546</v>
       </c>
       <c r="P25">
-        <v>1.000234269315448</v>
+        <v>1.00023425895879</v>
       </c>
       <c r="Q25">
-        <v>1.000234269315448</v>
+        <v>1.00023425895879</v>
       </c>
       <c r="R25">
-        <v>1.00008784575231</v>
+        <v>1.000087846752073</v>
       </c>
       <c r="S25">
-        <v>1.00008784575231</v>
+        <v>1.000087846752073</v>
       </c>
       <c r="T25">
-        <v>1.000031232974913</v>
+        <v>1.000031234396472</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9999092692827324</v>
+        <v>0.999909272782855</v>
       </c>
       <c r="D26">
-        <v>0.9999092692827324</v>
+        <v>0.999909272782855</v>
       </c>
       <c r="E26">
-        <v>1.000199599806251</v>
+        <v>1.000199595934479</v>
       </c>
       <c r="F26">
-        <v>0.9997580504696173</v>
+        <v>0.9997580687530724</v>
       </c>
       <c r="G26">
-        <v>1.000362914356572</v>
+        <v>1.000362896813908</v>
       </c>
       <c r="H26">
-        <v>0.9999092692827324</v>
+        <v>0.999909272782855</v>
       </c>
       <c r="I26">
-        <v>0.9999092692827324</v>
+        <v>0.999909272782855</v>
       </c>
       <c r="J26">
-        <v>1.000362914356572</v>
+        <v>1.000362896813908</v>
       </c>
       <c r="K26">
-        <v>0.9999092692827324</v>
+        <v>0.999909272782855</v>
       </c>
       <c r="L26">
-        <v>0.9999092692827324</v>
+        <v>0.999909272782855</v>
       </c>
       <c r="M26">
-        <v>1.000136091819652</v>
+        <v>1.000136084798382</v>
       </c>
       <c r="N26">
-        <v>1.000136091819652</v>
+        <v>1.000136084798382</v>
       </c>
       <c r="O26">
-        <v>1.000157261148518</v>
+        <v>1.000157255177081</v>
       </c>
       <c r="P26">
-        <v>1.000060484307346</v>
+        <v>1.000060480793206</v>
       </c>
       <c r="Q26">
-        <v>1.000060484307346</v>
+        <v>1.000060480793206</v>
       </c>
       <c r="R26">
-        <v>1.000022680551192</v>
+        <v>1.000022678790618</v>
       </c>
       <c r="S26">
-        <v>1.000022680551192</v>
+        <v>1.000022678790618</v>
       </c>
       <c r="T26">
-        <v>1.000008062080106</v>
+        <v>1.000008063308337</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000159804101162</v>
+        <v>0.9996485750628979</v>
       </c>
       <c r="D27">
-        <v>1.000159804101162</v>
+        <v>0.9996485750628979</v>
       </c>
       <c r="E27">
-        <v>0.9996484062566799</v>
+        <v>1.000773121868479</v>
       </c>
       <c r="F27">
-        <v>1.000426168562897</v>
+        <v>0.9990628929717564</v>
       </c>
       <c r="G27">
-        <v>0.9993607490376002</v>
+        <v>1.001405657820548</v>
       </c>
       <c r="H27">
-        <v>1.000159804101162</v>
+        <v>0.9996485750628979</v>
       </c>
       <c r="I27">
-        <v>1.000159804101162</v>
+        <v>0.9996485750628979</v>
       </c>
       <c r="J27">
-        <v>0.9993607490376002</v>
+        <v>1.001405657820548</v>
       </c>
       <c r="K27">
-        <v>1.000159804101162</v>
+        <v>0.9996485750628979</v>
       </c>
       <c r="L27">
-        <v>1.000159804101162</v>
+        <v>0.9996485750628979</v>
       </c>
       <c r="M27">
-        <v>0.9997602765693812</v>
+        <v>1.000527116441723</v>
       </c>
       <c r="N27">
-        <v>0.9997602765693812</v>
+        <v>1.000527116441723</v>
       </c>
       <c r="O27">
-        <v>0.9997229864651475</v>
+        <v>1.000609118250642</v>
       </c>
       <c r="P27">
-        <v>0.9998934524133082</v>
+        <v>1.000234269315448</v>
       </c>
       <c r="Q27">
-        <v>0.9998934524133082</v>
+        <v>1.000234269315448</v>
       </c>
       <c r="R27">
-        <v>0.9999600403352716</v>
+        <v>1.00008784575231</v>
       </c>
       <c r="S27">
-        <v>0.9999600403352716</v>
+        <v>1.00008784575231</v>
       </c>
       <c r="T27">
-        <v>0.9999857893601106</v>
+        <v>1.000031232974913</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9999722733255699</v>
+        <v>0.9999092692827324</v>
       </c>
       <c r="D28">
-        <v>0.9999722733255699</v>
+        <v>0.9999092692827324</v>
       </c>
       <c r="E28">
-        <v>1.000060989642175</v>
+        <v>1.000199599806251</v>
       </c>
       <c r="F28">
-        <v>0.9999260672183516</v>
+        <v>0.9997580504696173</v>
       </c>
       <c r="G28">
-        <v>1.00011089013703</v>
+        <v>1.000362914356572</v>
       </c>
       <c r="H28">
-        <v>0.9999722733255699</v>
+        <v>0.9999092692827324</v>
       </c>
       <c r="I28">
-        <v>0.9999722733255699</v>
+        <v>0.9999092692827324</v>
       </c>
       <c r="J28">
-        <v>1.00011089013703</v>
+        <v>1.000362914356572</v>
       </c>
       <c r="K28">
-        <v>0.9999722733255699</v>
+        <v>0.9999092692827324</v>
       </c>
       <c r="L28">
-        <v>0.9999722733255699</v>
+        <v>0.9999092692827324</v>
       </c>
       <c r="M28">
-        <v>1.0000415817313</v>
+        <v>1.000136091819652</v>
       </c>
       <c r="N28">
-        <v>1.0000415817313</v>
+        <v>1.000136091819652</v>
       </c>
       <c r="O28">
-        <v>1.000048051034925</v>
+        <v>1.000157261148518</v>
       </c>
       <c r="P28">
-        <v>1.00001847892939</v>
+        <v>1.000060484307346</v>
       </c>
       <c r="Q28">
-        <v>1.00001847892939</v>
+        <v>1.000060484307346</v>
       </c>
       <c r="R28">
-        <v>1.000006927528435</v>
+        <v>1.000022680551192</v>
       </c>
       <c r="S28">
-        <v>1.000006927528435</v>
+        <v>1.000022680551192</v>
       </c>
       <c r="T28">
-        <v>1.000002461162378</v>
+        <v>1.000008062080106</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="D29">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="E29">
+        <v>0.9996484062566799</v>
+      </c>
+      <c r="F29">
+        <v>1.000426168562897</v>
+      </c>
+      <c r="G29">
+        <v>0.9993607490376002</v>
+      </c>
+      <c r="H29">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="I29">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="J29">
+        <v>0.9993607490376002</v>
+      </c>
+      <c r="K29">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="L29">
+        <v>1.000159804101162</v>
+      </c>
+      <c r="M29">
+        <v>0.9997602765693812</v>
+      </c>
+      <c r="N29">
+        <v>0.9997602765693812</v>
+      </c>
+      <c r="O29">
+        <v>0.9997229864651475</v>
+      </c>
+      <c r="P29">
+        <v>0.9998934524133082</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998934524133082</v>
+      </c>
+      <c r="R29">
+        <v>0.9999600403352716</v>
+      </c>
+      <c r="S29">
+        <v>0.9999600403352716</v>
+      </c>
+      <c r="T29">
+        <v>0.9999857893601106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="D30">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="E30">
+        <v>1.000060989642175</v>
+      </c>
+      <c r="F30">
+        <v>0.9999260672183516</v>
+      </c>
+      <c r="G30">
+        <v>1.00011089013703</v>
+      </c>
+      <c r="H30">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="I30">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="J30">
+        <v>1.00011089013703</v>
+      </c>
+      <c r="K30">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="L30">
+        <v>0.9999722733255699</v>
+      </c>
+      <c r="M30">
+        <v>1.0000415817313</v>
+      </c>
+      <c r="N30">
+        <v>1.0000415817313</v>
+      </c>
+      <c r="O30">
+        <v>1.000048051034925</v>
+      </c>
+      <c r="P30">
+        <v>1.00001847892939</v>
+      </c>
+      <c r="Q30">
+        <v>1.00001847892939</v>
+      </c>
+      <c r="R30">
+        <v>1.000006927528435</v>
+      </c>
+      <c r="S30">
+        <v>1.000006927528435</v>
+      </c>
+      <c r="T30">
+        <v>1.000002461162378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9994843808471475</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9994843808471475</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.00113437872263</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9986249933122145</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.00206250216597</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9994843808471475</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9994843808471475</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.00206250216597</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9994843808471475</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9994843808471475</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000773441506559</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000773441506559</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000893753911916</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000343754620088</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000343754620088</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000128911176853</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000128911176853</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000045836123709</v>
       </c>
     </row>
